--- a/declensions & conjugations.xlsx
+++ b/declensions & conjugations.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" state="visible" r:id="rId2"/>
@@ -4194,8 +4194,8 @@
     <t xml:space="preserve">passiṃsu
 ddasuṃ
 ddasaṃsu
-dakkhiṃsu
-dakkhuṃ</t>
+ddakkhiṃsu
+ddakkhuṃ</t>
   </si>
   <si>
     <t xml:space="preserve">addasā
@@ -4254,7 +4254,7 @@
   </si>
   <si>
     <t xml:space="preserve">passittha
-dakkhittha</t>
+ddakkhittha</t>
   </si>
   <si>
     <t xml:space="preserve">addakkho
@@ -4303,7 +4303,7 @@
   </si>
   <si>
     <t xml:space="preserve">passimha
-dakkhimha</t>
+ddakkhimha</t>
   </si>
   <si>
     <t xml:space="preserve">addakkhaṃ
@@ -9099,7 +9099,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ1020"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A101" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A101" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B118" activeCellId="0" sqref="B118"/>
     </sheetView>
   </sheetViews>
@@ -38681,8 +38681,8 @@
   </sheetPr>
   <dimension ref="A1:DK350"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AH12" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AR21" activeCellId="0" sqref="AR21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="CK55" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="CV65" activeCellId="0" sqref="CV65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/declensions & conjugations.xlsx
+++ b/declensions & conjugations.xlsx
@@ -235,7 +235,7 @@
     <t xml:space="preserve">koṭi</t>
   </si>
   <si>
-    <t xml:space="preserve">ahaṃ pron 1st</t>
+    <t xml:space="preserve">ahaṃ pron</t>
   </si>
   <si>
     <t xml:space="preserve">AC3:AG10</t>
@@ -244,7 +244,7 @@
     <t xml:space="preserve">AI3:AM10</t>
   </si>
   <si>
-    <t xml:space="preserve">tvaṃ pron 2nd</t>
+    <t xml:space="preserve">tvaṃ pron</t>
   </si>
   <si>
     <t xml:space="preserve">AC13:AG20</t>
@@ -1225,7 +1225,7 @@
     <t xml:space="preserve">1st pl</t>
   </si>
   <si>
-    <t xml:space="preserve">amha pron 1st</t>
+    <t xml:space="preserve">amha pron</t>
   </si>
   <si>
     <t xml:space="preserve">active sg</t>
@@ -2045,7 +2045,7 @@
     <t xml:space="preserve">2nd pl</t>
   </si>
   <si>
-    <t xml:space="preserve">tumha pron 2nd</t>
+    <t xml:space="preserve">tumha pron</t>
   </si>
   <si>
     <t xml:space="preserve">fut 3rd</t>
@@ -9212,8 +9212,8 @@
   </sheetPr>
   <dimension ref="A1:Z1021"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A103" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B130" activeCellId="0" sqref="B130"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10063,7 +10063,7 @@
       </c>
       <c r="E25" s="1" t="str">
         <f aca="false">declensions!AI3</f>
-        <v>amha pron 1st</v>
+        <v>amha pron</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>72</v>
@@ -10102,7 +10102,7 @@
       </c>
       <c r="E26" s="1" t="str">
         <f aca="false">declensions!AI13</f>
-        <v>tumha pron 2nd</v>
+        <v>tumha pron</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>75</v>
@@ -38802,8 +38802,8 @@
   </sheetPr>
   <dimension ref="A1:DK350"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="CR56" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="CY63" activeCellId="0" sqref="CY63"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AA1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AI4" activeCellId="0" sqref="AI4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -45136,7 +45136,7 @@
         <v>610</v>
       </c>
       <c r="AR31" s="24" t="s">
-        <v>611</v>
+        <v>834</v>
       </c>
       <c r="AS31" s="52" t="s">
         <v>612</v>
@@ -45160,7 +45160,7 @@
         <v>615</v>
       </c>
       <c r="AZ31" s="24" t="s">
-        <v>611</v>
+        <v>834</v>
       </c>
       <c r="BA31" s="52" t="s">
         <v>616</v>
@@ -73557,7 +73557,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ66"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D65" activeCellId="0" sqref="D65"/>
     </sheetView>
   </sheetViews>
@@ -76005,7 +76005,7 @@
   </sheetPr>
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>

--- a/declensions & conjugations.xlsx
+++ b/declensions & conjugations.xlsx
@@ -3548,12 +3548,12 @@
     <t xml:space="preserve">atīsu</t>
   </si>
   <si>
+    <t xml:space="preserve">usu
+ūsu</t>
+  </si>
+  <si>
     <t xml:space="preserve">uyā
 uyaṃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">usu
-ūsu</t>
   </si>
   <si>
     <t xml:space="preserve">kamme
@@ -39098,8 +39098,8 @@
   </sheetPr>
   <dimension ref="A1:DK350"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="CO1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="CT7" activeCellId="0" sqref="CT7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AX41" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BH44" activeCellId="0" sqref="BH44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -48007,7 +48007,7 @@
         <v>589</v>
       </c>
       <c r="BH43" s="40" t="s">
-        <v>817</v>
+        <v>1054</v>
       </c>
       <c r="BI43" s="54" t="s">
         <v>591</v>
@@ -48025,13 +48025,13 @@
         <v>587</v>
       </c>
       <c r="BR43" s="26" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="BS43" s="41" t="s">
         <v>593</v>
       </c>
       <c r="BT43" s="26" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="BU43" s="41" t="s">
         <v>595</v>
@@ -52416,7 +52416,7 @@
         <v>593</v>
       </c>
       <c r="H65" s="36" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="I65" s="48" t="s">
         <v>595</v>
@@ -54586,13 +54586,13 @@
         <v>587</v>
       </c>
       <c r="BR76" s="26" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="BS76" s="41" t="s">
         <v>593</v>
       </c>
       <c r="BT76" s="26" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="BU76" s="41" t="s">
         <v>595</v>

--- a/declensions & conjugations.xlsx
+++ b/declensions & conjugations.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" state="visible" r:id="rId2"/>
@@ -2601,7 +2601,8 @@
   <si>
     <t xml:space="preserve">ini
 ismiṃ
-imhi</t>
+imhi
+ine</t>
   </si>
   <si>
     <t xml:space="preserve">isu
@@ -9431,7 +9432,7 @@
   </sheetPr>
   <dimension ref="A1:Z1024"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A113" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A113" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B127" activeCellId="0" sqref="B127"/>
     </sheetView>
   </sheetViews>
@@ -39127,8 +39128,8 @@
   </sheetPr>
   <dimension ref="A1:DK350"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="DA37" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="DC39" activeCellId="0" sqref="DC39"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/declensions & conjugations.xlsx
+++ b/declensions & conjugations.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" state="visible" r:id="rId2"/>
@@ -3650,7 +3650,8 @@
     <t xml:space="preserve">ānassa</t>
   </si>
   <si>
-    <t xml:space="preserve">āraṃ</t>
+    <t xml:space="preserve">araṃ
+āraṃ</t>
   </si>
   <si>
     <t xml:space="preserve">āre
@@ -3711,29 +3712,9 @@
 uyā</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Crimson Pro"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">arehi
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Crimson Pro"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">āhi
+    <t xml:space="preserve">arehi
+āhi
 ūhi</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">osi</t>
@@ -8682,7 +8663,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0.00"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -8771,13 +8752,6 @@
       <name val="Crimson Pro"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Crimson Pro"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
@@ -8997,336 +8971,332 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="82">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="10" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="10" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="15" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="15" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="15" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="15" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="15" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="15" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="10" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="10" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="10" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="10" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="16" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="16" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="16" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="16" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="15" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="15" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="15" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="15" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="justify" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="13" fillId="15" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="15" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="14" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="14" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -9410,18 +9380,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="110" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="AX3" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="AX1" activeCellId="0" sqref="AX1"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C65613" activeCellId="0" sqref="C65613"/>
+      <selection pane="bottomRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -38480,18 +38450,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:DK350"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="110" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="AE3" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="AZ42" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="AE1" activeCellId="0" sqref="AE1"/>
-      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AH1070" activeCellId="0" sqref="AH1070"/>
+      <selection pane="topRight" activeCell="AZ1" activeCellId="0" sqref="AZ1"/>
+      <selection pane="bottomLeft" activeCell="A42" activeCellId="0" sqref="A42"/>
+      <selection pane="bottomRight" activeCell="BF49" activeCellId="0" sqref="BF49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -38508,7 +38478,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="19" width="15.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="19" width="12.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="19" width="13.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="19" width="12.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="19" width="12.42"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="14" style="19" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="19" width="13.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="19" width="14.08"/>
@@ -38522,35 +38492,35 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="19" width="12.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="19" width="12.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="19" width="10.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="19" width="12.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="19" width="12.42"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="28" min="28" style="19" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="19" width="18.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="19" width="16.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="19" width="16.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="19" width="15.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="19" width="16.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="19" width="15.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="19" width="15.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="19" width="18.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="19" width="14.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="19" width="14.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="19" width="12.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="19" width="14.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="19" width="15.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="19" width="12.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="19" width="15.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="19" width="12.42"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="42" min="42" style="19" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="19" width="17.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="19" width="14.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="19" width="16.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="19" width="15.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="19" width="16.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="19" width="15.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="19" width="15.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="19" width="14.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="19" width="13.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="19" width="14.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="19" width="14.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="19" width="12.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="19" width="13.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="19" width="12.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="19" width="12.42"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="56" min="56" style="19" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="19" width="18.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="19" width="19.33"/>
@@ -38580,7 +38550,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="82" min="82" style="19" width="19.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="83" min="83" style="19" width="12.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="84" min="84" style="19" width="16.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="85" min="85" style="19" width="12.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="85" min="85" style="19" width="12.42"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="86" min="86" style="19" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="87" min="87" style="19" width="15.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="88" min="88" style="19" width="10.65"/>
@@ -38590,17 +38560,17 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="92" min="92" style="19" width="10.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="93" min="93" style="19" width="22.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="94" min="94" style="19" width="14.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="95" min="95" style="19" width="22.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="95" min="95" style="19" width="22.42"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="96" min="96" style="19" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="97" min="97" style="19" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="98" min="98" style="19" width="17.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="99" min="99" style="19" width="16.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="100" min="100" style="19" width="17.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="101" style="19" width="16.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="102" min="102" style="19" width="16.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="102" min="102" style="19" width="16.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="103" min="103" style="19" width="22.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="104" min="104" style="19" width="19.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="105" min="105" style="19" width="22.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="105" min="105" style="19" width="22.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="106" min="106" style="19" width="19.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="107" min="107" style="19" width="16.6"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="109" min="108" style="19" width="11.52"/>
@@ -39911,11 +39881,11 @@
       <c r="CW7" s="62" t="s">
         <v>519</v>
       </c>
-      <c r="CY7" s="0"/>
-      <c r="CZ7" s="0"/>
-      <c r="DA7" s="0"/>
-      <c r="DB7" s="0"/>
-      <c r="DC7" s="0"/>
+      <c r="CY7" s="63"/>
+      <c r="CZ7" s="63"/>
+      <c r="DA7" s="63"/>
+      <c r="DB7" s="63"/>
+      <c r="DC7" s="63"/>
     </row>
     <row r="8" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="20" t="s">
@@ -40583,11 +40553,11 @@
       <c r="CQ10" s="56" t="s">
         <v>602</v>
       </c>
-      <c r="CS10" s="0"/>
-      <c r="CT10" s="0"/>
-      <c r="CU10" s="0"/>
-      <c r="CV10" s="0"/>
-      <c r="CW10" s="0"/>
+      <c r="CS10" s="63"/>
+      <c r="CT10" s="63"/>
+      <c r="CU10" s="63"/>
+      <c r="CV10" s="63"/>
+      <c r="CW10" s="63"/>
       <c r="CY10" s="42"/>
       <c r="CZ10" s="42"/>
       <c r="DA10" s="42"/>
@@ -41626,25 +41596,25 @@
       <c r="CG16" s="43" t="s">
         <v>442</v>
       </c>
-      <c r="CI16" s="0"/>
-      <c r="CJ16" s="0"/>
-      <c r="CK16" s="0"/>
-      <c r="CL16" s="0"/>
-      <c r="CM16" s="0"/>
-      <c r="CN16" s="0"/>
-      <c r="CO16" s="0"/>
-      <c r="CP16" s="0"/>
-      <c r="CQ16" s="0"/>
-      <c r="CS16" s="0"/>
-      <c r="CT16" s="0"/>
-      <c r="CU16" s="0"/>
-      <c r="CV16" s="0"/>
-      <c r="CW16" s="0"/>
-      <c r="CY16" s="0"/>
-      <c r="CZ16" s="0"/>
-      <c r="DA16" s="0"/>
-      <c r="DB16" s="0"/>
-      <c r="DC16" s="0"/>
+      <c r="CI16" s="63"/>
+      <c r="CJ16" s="63"/>
+      <c r="CK16" s="63"/>
+      <c r="CL16" s="63"/>
+      <c r="CM16" s="63"/>
+      <c r="CN16" s="63"/>
+      <c r="CO16" s="63"/>
+      <c r="CP16" s="63"/>
+      <c r="CQ16" s="63"/>
+      <c r="CS16" s="63"/>
+      <c r="CT16" s="63"/>
+      <c r="CU16" s="63"/>
+      <c r="CV16" s="63"/>
+      <c r="CW16" s="63"/>
+      <c r="CY16" s="63"/>
+      <c r="CZ16" s="63"/>
+      <c r="DA16" s="63"/>
+      <c r="DB16" s="63"/>
+      <c r="DC16" s="63"/>
     </row>
     <row r="17" customFormat="false" ht="42.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="20" t="s">
@@ -42776,16 +42746,16 @@
       <c r="CQ22" s="60" t="s">
         <v>523</v>
       </c>
-      <c r="CS22" s="0"/>
-      <c r="CT22" s="0"/>
-      <c r="CU22" s="0"/>
-      <c r="CV22" s="0"/>
-      <c r="CW22" s="0"/>
-      <c r="CY22" s="0"/>
-      <c r="CZ22" s="0"/>
-      <c r="DA22" s="0"/>
-      <c r="DB22" s="0"/>
-      <c r="DC22" s="0"/>
+      <c r="CS22" s="63"/>
+      <c r="CT22" s="63"/>
+      <c r="CU22" s="63"/>
+      <c r="CV22" s="63"/>
+      <c r="CW22" s="63"/>
+      <c r="CY22" s="63"/>
+      <c r="CZ22" s="63"/>
+      <c r="DA22" s="63"/>
+      <c r="DB22" s="63"/>
+      <c r="DC22" s="63"/>
     </row>
     <row r="23" customFormat="false" ht="28.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="20" t="s">
@@ -44530,20 +44500,20 @@
       <c r="CG31" s="43" t="s">
         <v>559</v>
       </c>
-      <c r="CI31" s="0"/>
-      <c r="CJ31" s="0"/>
-      <c r="CK31" s="0"/>
-      <c r="CL31" s="0"/>
-      <c r="CM31" s="0"/>
-      <c r="CN31" s="0"/>
-      <c r="CO31" s="0"/>
-      <c r="CP31" s="0"/>
-      <c r="CQ31" s="0"/>
-      <c r="CS31" s="0"/>
-      <c r="CT31" s="0"/>
-      <c r="CU31" s="0"/>
-      <c r="CV31" s="0"/>
-      <c r="CW31" s="0"/>
+      <c r="CI31" s="63"/>
+      <c r="CJ31" s="63"/>
+      <c r="CK31" s="63"/>
+      <c r="CL31" s="63"/>
+      <c r="CM31" s="63"/>
+      <c r="CN31" s="63"/>
+      <c r="CO31" s="63"/>
+      <c r="CP31" s="63"/>
+      <c r="CQ31" s="63"/>
+      <c r="CS31" s="63"/>
+      <c r="CT31" s="63"/>
+      <c r="CU31" s="63"/>
+      <c r="CV31" s="63"/>
+      <c r="CW31" s="63"/>
     </row>
     <row r="32" customFormat="false" ht="42.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="20"/>
@@ -45649,24 +45619,24 @@
       <c r="CQ37" s="60" t="s">
         <v>523</v>
       </c>
-      <c r="CS37" s="0"/>
-      <c r="CT37" s="0"/>
-      <c r="CU37" s="0"/>
-      <c r="CV37" s="0"/>
-      <c r="CW37" s="0"/>
-      <c r="CX37" s="0"/>
-      <c r="CY37" s="0"/>
-      <c r="CZ37" s="0"/>
-      <c r="DA37" s="0"/>
-      <c r="DC37" s="0"/>
-      <c r="DD37" s="0"/>
-      <c r="DE37" s="0"/>
-      <c r="DF37" s="0"/>
-      <c r="DG37" s="0"/>
-      <c r="DH37" s="0"/>
-      <c r="DI37" s="0"/>
-      <c r="DJ37" s="0"/>
-      <c r="DK37" s="0"/>
+      <c r="CS37" s="63"/>
+      <c r="CT37" s="63"/>
+      <c r="CU37" s="63"/>
+      <c r="CV37" s="63"/>
+      <c r="CW37" s="63"/>
+      <c r="CX37" s="63"/>
+      <c r="CY37" s="63"/>
+      <c r="CZ37" s="63"/>
+      <c r="DA37" s="63"/>
+      <c r="DC37" s="63"/>
+      <c r="DD37" s="63"/>
+      <c r="DE37" s="63"/>
+      <c r="DF37" s="63"/>
+      <c r="DG37" s="63"/>
+      <c r="DH37" s="63"/>
+      <c r="DI37" s="63"/>
+      <c r="DJ37" s="63"/>
+      <c r="DK37" s="63"/>
     </row>
     <row r="38" customFormat="false" ht="55.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="20" t="s">
@@ -46115,15 +46085,15 @@
       <c r="CQ39" s="60" t="s">
         <v>570</v>
       </c>
-      <c r="CS39" s="0"/>
-      <c r="CT39" s="0"/>
-      <c r="CU39" s="0"/>
-      <c r="CV39" s="0"/>
-      <c r="CW39" s="0"/>
-      <c r="CX39" s="0"/>
-      <c r="CY39" s="0"/>
-      <c r="CZ39" s="0"/>
-      <c r="DA39" s="0"/>
+      <c r="CS39" s="63"/>
+      <c r="CT39" s="63"/>
+      <c r="CU39" s="63"/>
+      <c r="CV39" s="63"/>
+      <c r="CW39" s="63"/>
+      <c r="CX39" s="63"/>
+      <c r="CY39" s="63"/>
+      <c r="CZ39" s="63"/>
+      <c r="DA39" s="63"/>
       <c r="DC39" s="45" t="s">
         <v>335</v>
       </c>
@@ -46367,15 +46337,15 @@
       <c r="CQ40" s="56" t="s">
         <v>602</v>
       </c>
-      <c r="CS40" s="0"/>
-      <c r="CT40" s="0"/>
-      <c r="CU40" s="0"/>
-      <c r="CV40" s="0"/>
-      <c r="CW40" s="0"/>
-      <c r="CX40" s="0"/>
-      <c r="CY40" s="0"/>
-      <c r="CZ40" s="0"/>
-      <c r="DA40" s="0"/>
+      <c r="CS40" s="63"/>
+      <c r="CT40" s="63"/>
+      <c r="CU40" s="63"/>
+      <c r="CV40" s="63"/>
+      <c r="CW40" s="63"/>
+      <c r="CX40" s="63"/>
+      <c r="CY40" s="63"/>
+      <c r="CZ40" s="63"/>
+      <c r="DA40" s="63"/>
       <c r="DC40" s="67" t="s">
         <v>423</v>
       </c>
@@ -46595,15 +46565,15 @@
       <c r="CQ41" s="56" t="s">
         <v>626</v>
       </c>
-      <c r="CS41" s="0"/>
-      <c r="CT41" s="0"/>
-      <c r="CU41" s="0"/>
-      <c r="CV41" s="0"/>
-      <c r="CW41" s="0"/>
-      <c r="CX41" s="0"/>
-      <c r="CY41" s="0"/>
-      <c r="CZ41" s="0"/>
-      <c r="DA41" s="0"/>
+      <c r="CS41" s="63"/>
+      <c r="CT41" s="63"/>
+      <c r="CU41" s="63"/>
+      <c r="CV41" s="63"/>
+      <c r="CW41" s="63"/>
+      <c r="CX41" s="63"/>
+      <c r="CY41" s="63"/>
+      <c r="CZ41" s="63"/>
+      <c r="DA41" s="63"/>
       <c r="DC41" s="67" t="s">
         <v>449</v>
       </c>
@@ -46773,15 +46743,15 @@
       <c r="CQ42" s="56" t="s">
         <v>636</v>
       </c>
-      <c r="CS42" s="0"/>
-      <c r="CT42" s="0"/>
-      <c r="CU42" s="0"/>
-      <c r="CV42" s="0"/>
-      <c r="CW42" s="0"/>
-      <c r="CX42" s="0"/>
-      <c r="CY42" s="0"/>
-      <c r="CZ42" s="0"/>
-      <c r="DA42" s="0"/>
+      <c r="CS42" s="63"/>
+      <c r="CT42" s="63"/>
+      <c r="CU42" s="63"/>
+      <c r="CV42" s="63"/>
+      <c r="CW42" s="63"/>
+      <c r="CX42" s="63"/>
+      <c r="CY42" s="63"/>
+      <c r="CZ42" s="63"/>
+      <c r="DA42" s="63"/>
       <c r="DC42" s="67" t="s">
         <v>486</v>
       </c>
@@ -46992,15 +46962,15 @@
       <c r="CQ43" s="60" t="s">
         <v>648</v>
       </c>
-      <c r="CS43" s="0"/>
-      <c r="CT43" s="0"/>
-      <c r="CU43" s="0"/>
-      <c r="CV43" s="0"/>
-      <c r="CW43" s="0"/>
-      <c r="CX43" s="0"/>
-      <c r="CY43" s="0"/>
-      <c r="CZ43" s="0"/>
-      <c r="DA43" s="0"/>
+      <c r="CS43" s="63"/>
+      <c r="CT43" s="63"/>
+      <c r="CU43" s="63"/>
+      <c r="CV43" s="63"/>
+      <c r="CW43" s="63"/>
+      <c r="CX43" s="63"/>
+      <c r="CY43" s="63"/>
+      <c r="CZ43" s="63"/>
+      <c r="DA43" s="63"/>
       <c r="DC43" s="45" t="s">
         <v>594</v>
       </c>
@@ -47561,15 +47531,15 @@
       <c r="CC46" s="21"/>
       <c r="CD46" s="21"/>
       <c r="CF46" s="21"/>
-      <c r="CI46" s="0"/>
-      <c r="CJ46" s="0"/>
-      <c r="CK46" s="0"/>
-      <c r="CL46" s="0"/>
-      <c r="CM46" s="0"/>
-      <c r="CN46" s="0"/>
-      <c r="CO46" s="0"/>
-      <c r="CP46" s="0"/>
-      <c r="CQ46" s="0"/>
+      <c r="CI46" s="63"/>
+      <c r="CJ46" s="63"/>
+      <c r="CK46" s="63"/>
+      <c r="CL46" s="63"/>
+      <c r="CM46" s="63"/>
+      <c r="CN46" s="63"/>
+      <c r="CO46" s="63"/>
+      <c r="CP46" s="63"/>
+      <c r="CQ46" s="63"/>
       <c r="CS46" s="67" t="s">
         <v>594</v>
       </c>
@@ -48109,15 +48079,15 @@
       <c r="CO49" s="56"/>
       <c r="CP49" s="55"/>
       <c r="CQ49" s="56"/>
-      <c r="CS49" s="0"/>
-      <c r="CT49" s="0"/>
-      <c r="CU49" s="0"/>
-      <c r="CV49" s="0"/>
-      <c r="CW49" s="0"/>
-      <c r="CX49" s="0"/>
-      <c r="CY49" s="0"/>
-      <c r="CZ49" s="0"/>
-      <c r="DA49" s="0"/>
+      <c r="CS49" s="63"/>
+      <c r="CT49" s="63"/>
+      <c r="CU49" s="63"/>
+      <c r="CV49" s="63"/>
+      <c r="CW49" s="63"/>
+      <c r="CX49" s="63"/>
+      <c r="CY49" s="63"/>
+      <c r="CZ49" s="63"/>
+      <c r="DA49" s="63"/>
     </row>
     <row r="50" customFormat="false" ht="55.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="20"/>
@@ -48244,7 +48214,7 @@
       <c r="BS50" s="41" t="s">
         <v>467</v>
       </c>
-      <c r="BT50" s="70" t="s">
+      <c r="BT50" s="26" t="s">
         <v>1089</v>
       </c>
       <c r="BU50" s="41" t="s">
@@ -48497,7 +48467,7 @@
       <c r="BS52" s="41" t="s">
         <v>530</v>
       </c>
-      <c r="BT52" s="70" t="s">
+      <c r="BT52" s="26" t="s">
         <v>1089</v>
       </c>
       <c r="BU52" s="41" t="s">
@@ -49101,15 +49071,15 @@
       <c r="CQ55" s="56" t="s">
         <v>602</v>
       </c>
-      <c r="CS55" s="0"/>
-      <c r="CT55" s="0"/>
-      <c r="CU55" s="0"/>
-      <c r="CV55" s="0"/>
-      <c r="CW55" s="0"/>
-      <c r="CX55" s="0"/>
-      <c r="CY55" s="0"/>
-      <c r="CZ55" s="0"/>
-      <c r="DA55" s="0"/>
+      <c r="CS55" s="63"/>
+      <c r="CT55" s="63"/>
+      <c r="CU55" s="63"/>
+      <c r="CV55" s="63"/>
+      <c r="CW55" s="63"/>
+      <c r="CX55" s="63"/>
+      <c r="CY55" s="63"/>
+      <c r="CZ55" s="63"/>
+      <c r="DA55" s="63"/>
     </row>
     <row r="56" customFormat="false" ht="28.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="20"/>
@@ -50171,24 +50141,24 @@
       <c r="CE61" s="43"/>
       <c r="CF61" s="27"/>
       <c r="CG61" s="43"/>
-      <c r="CI61" s="0"/>
-      <c r="CJ61" s="0"/>
-      <c r="CK61" s="0"/>
-      <c r="CL61" s="0"/>
-      <c r="CM61" s="0"/>
-      <c r="CN61" s="0"/>
-      <c r="CO61" s="0"/>
-      <c r="CP61" s="0"/>
-      <c r="CQ61" s="0"/>
-      <c r="CS61" s="0"/>
-      <c r="CT61" s="0"/>
-      <c r="CU61" s="0"/>
-      <c r="CV61" s="0"/>
-      <c r="CW61" s="0"/>
-      <c r="CX61" s="0"/>
-      <c r="CY61" s="0"/>
-      <c r="CZ61" s="0"/>
-      <c r="DA61" s="0"/>
+      <c r="CI61" s="63"/>
+      <c r="CJ61" s="63"/>
+      <c r="CK61" s="63"/>
+      <c r="CL61" s="63"/>
+      <c r="CM61" s="63"/>
+      <c r="CN61" s="63"/>
+      <c r="CO61" s="63"/>
+      <c r="CP61" s="63"/>
+      <c r="CQ61" s="63"/>
+      <c r="CS61" s="63"/>
+      <c r="CT61" s="63"/>
+      <c r="CU61" s="63"/>
+      <c r="CV61" s="63"/>
+      <c r="CW61" s="63"/>
+      <c r="CX61" s="63"/>
+      <c r="CY61" s="63"/>
+      <c r="CZ61" s="63"/>
+      <c r="DA61" s="63"/>
     </row>
     <row r="62" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="20" t="s">
@@ -50331,7 +50301,7 @@
       <c r="M63" s="47" t="s">
         <v>534</v>
       </c>
-      <c r="O63" s="71" t="s">
+      <c r="O63" s="70" t="s">
         <v>65</v>
       </c>
       <c r="P63" s="22" t="s">
@@ -51295,25 +51265,25 @@
       <c r="CE67" s="43"/>
       <c r="CF67" s="27"/>
       <c r="CG67" s="43"/>
-      <c r="CI67" s="0"/>
-      <c r="CJ67" s="0"/>
-      <c r="CK67" s="0"/>
-      <c r="CL67" s="0"/>
-      <c r="CM67" s="0"/>
-      <c r="CN67" s="0"/>
-      <c r="CO67" s="0"/>
-      <c r="CP67" s="0"/>
-      <c r="CQ67" s="0"/>
-      <c r="CS67" s="0"/>
-      <c r="CT67" s="0"/>
-      <c r="CU67" s="0"/>
-      <c r="CV67" s="0"/>
-      <c r="CW67" s="0"/>
-      <c r="CY67" s="0"/>
-      <c r="CZ67" s="0"/>
-      <c r="DA67" s="0"/>
-      <c r="DB67" s="0"/>
-      <c r="DC67" s="0"/>
+      <c r="CI67" s="63"/>
+      <c r="CJ67" s="63"/>
+      <c r="CK67" s="63"/>
+      <c r="CL67" s="63"/>
+      <c r="CM67" s="63"/>
+      <c r="CN67" s="63"/>
+      <c r="CO67" s="63"/>
+      <c r="CP67" s="63"/>
+      <c r="CQ67" s="63"/>
+      <c r="CS67" s="63"/>
+      <c r="CT67" s="63"/>
+      <c r="CU67" s="63"/>
+      <c r="CV67" s="63"/>
+      <c r="CW67" s="63"/>
+      <c r="CY67" s="63"/>
+      <c r="CZ67" s="63"/>
+      <c r="DA67" s="63"/>
+      <c r="DB67" s="63"/>
+      <c r="DC67" s="63"/>
     </row>
     <row r="68" customFormat="false" ht="55.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B68" s="21"/>
@@ -51797,7 +51767,7 @@
       <c r="CL70" s="55" t="s">
         <v>1238</v>
       </c>
-      <c r="CM70" s="72" t="s">
+      <c r="CM70" s="71" t="s">
         <v>653</v>
       </c>
       <c r="CS70" s="67" t="s">
@@ -51963,7 +51933,7 @@
       <c r="CL71" s="55" t="s">
         <v>1246</v>
       </c>
-      <c r="CM71" s="72" t="s">
+      <c r="CM71" s="71" t="s">
         <v>679</v>
       </c>
       <c r="CS71" s="67" t="s">
@@ -52086,7 +52056,7 @@
       <c r="CL72" s="55" t="s">
         <v>1221</v>
       </c>
-      <c r="CM72" s="72" t="s">
+      <c r="CM72" s="71" t="s">
         <v>712</v>
       </c>
       <c r="CS72" s="67" t="s">
@@ -52232,16 +52202,16 @@
       </c>
       <c r="CF73" s="42"/>
       <c r="CG73" s="42"/>
-      <c r="CI73" s="0"/>
-      <c r="CJ73" s="0"/>
-      <c r="CK73" s="0"/>
-      <c r="CL73" s="0"/>
-      <c r="CM73" s="0"/>
-      <c r="CS73" s="0"/>
-      <c r="CT73" s="0"/>
-      <c r="CU73" s="0"/>
-      <c r="CV73" s="0"/>
-      <c r="CW73" s="0"/>
+      <c r="CI73" s="63"/>
+      <c r="CJ73" s="63"/>
+      <c r="CK73" s="63"/>
+      <c r="CL73" s="63"/>
+      <c r="CM73" s="63"/>
+      <c r="CS73" s="63"/>
+      <c r="CT73" s="63"/>
+      <c r="CU73" s="63"/>
+      <c r="CV73" s="63"/>
+      <c r="CW73" s="63"/>
     </row>
     <row r="74" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="20" t="s">
@@ -52751,7 +52721,7 @@
       <c r="CL76" s="55" t="s">
         <v>1267</v>
       </c>
-      <c r="CM76" s="72" t="s">
+      <c r="CM76" s="71" t="s">
         <v>653</v>
       </c>
       <c r="CN76" s="55" t="s">
@@ -52945,7 +52915,7 @@
       <c r="CL77" s="55" t="s">
         <v>458</v>
       </c>
-      <c r="CM77" s="72" t="s">
+      <c r="CM77" s="71" t="s">
         <v>679</v>
       </c>
       <c r="CN77" s="55" t="s">
@@ -53099,7 +53069,7 @@
       <c r="CL78" s="55" t="s">
         <v>713</v>
       </c>
-      <c r="CM78" s="72" t="s">
+      <c r="CM78" s="71" t="s">
         <v>712</v>
       </c>
       <c r="CN78" s="55" t="s">
@@ -53216,20 +53186,20 @@
       <c r="CC79" s="21"/>
       <c r="CD79" s="21"/>
       <c r="CF79" s="21"/>
-      <c r="CI79" s="0"/>
-      <c r="CJ79" s="0"/>
-      <c r="CK79" s="0"/>
-      <c r="CL79" s="0"/>
-      <c r="CM79" s="0"/>
-      <c r="CN79" s="0"/>
-      <c r="CO79" s="0"/>
-      <c r="CP79" s="0"/>
-      <c r="CQ79" s="0"/>
-      <c r="CS79" s="0"/>
-      <c r="CT79" s="0"/>
-      <c r="CU79" s="0"/>
-      <c r="CV79" s="0"/>
-      <c r="CW79" s="0"/>
+      <c r="CI79" s="63"/>
+      <c r="CJ79" s="63"/>
+      <c r="CK79" s="63"/>
+      <c r="CL79" s="63"/>
+      <c r="CM79" s="63"/>
+      <c r="CN79" s="63"/>
+      <c r="CO79" s="63"/>
+      <c r="CP79" s="63"/>
+      <c r="CQ79" s="63"/>
+      <c r="CS79" s="63"/>
+      <c r="CT79" s="63"/>
+      <c r="CU79" s="63"/>
+      <c r="CV79" s="63"/>
+      <c r="CW79" s="63"/>
     </row>
     <row r="80" customFormat="false" ht="41.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="20" t="s">
@@ -53677,7 +53647,7 @@
       <c r="CP82" s="55" t="s">
         <v>1293</v>
       </c>
-      <c r="CQ82" s="72" t="s">
+      <c r="CQ82" s="71" t="s">
         <v>1152</v>
       </c>
       <c r="CS82" s="67" t="s">
@@ -53686,13 +53656,13 @@
       <c r="CT82" s="67" t="s">
         <v>1294</v>
       </c>
-      <c r="CU82" s="73" t="s">
+      <c r="CU82" s="72" t="s">
         <v>596</v>
       </c>
       <c r="CV82" s="67" t="s">
         <v>1295</v>
       </c>
-      <c r="CW82" s="73" t="s">
+      <c r="CW82" s="72" t="s">
         <v>598</v>
       </c>
       <c r="CX82" s="67"/>
@@ -53866,13 +53836,13 @@
       <c r="CN83" s="55" t="s">
         <v>454</v>
       </c>
-      <c r="CO83" s="72" t="s">
+      <c r="CO83" s="71" t="s">
         <v>1162</v>
       </c>
       <c r="CP83" s="55" t="s">
         <v>1300</v>
       </c>
-      <c r="CQ83" s="72" t="s">
+      <c r="CQ83" s="71" t="s">
         <v>1164</v>
       </c>
       <c r="CS83" s="67" t="s">
@@ -53881,13 +53851,13 @@
       <c r="CT83" s="67" t="s">
         <v>1301</v>
       </c>
-      <c r="CU83" s="73" t="s">
+      <c r="CU83" s="72" t="s">
         <v>620</v>
       </c>
       <c r="CV83" s="67" t="s">
         <v>1302</v>
       </c>
-      <c r="CW83" s="73" t="s">
+      <c r="CW83" s="72" t="s">
         <v>622</v>
       </c>
       <c r="CX83" s="67"/>
@@ -54085,13 +54055,13 @@
       <c r="CN84" s="55" t="s">
         <v>191</v>
       </c>
-      <c r="CO84" s="72" t="s">
+      <c r="CO84" s="71" t="s">
         <v>1176</v>
       </c>
       <c r="CP84" s="55" t="s">
         <v>1316</v>
       </c>
-      <c r="CQ84" s="72" t="s">
+      <c r="CQ84" s="71" t="s">
         <v>1178</v>
       </c>
       <c r="CS84" s="67" t="s">
@@ -54100,13 +54070,13 @@
       <c r="CT84" s="67" t="s">
         <v>1317</v>
       </c>
-      <c r="CU84" s="73" t="s">
+      <c r="CU84" s="72" t="s">
         <v>630</v>
       </c>
       <c r="CV84" s="67" t="s">
         <v>1318</v>
       </c>
-      <c r="CW84" s="73" t="s">
+      <c r="CW84" s="72" t="s">
         <v>632</v>
       </c>
       <c r="CX84" s="67" t="s">
@@ -54288,24 +54258,24 @@
       </c>
       <c r="CF85" s="21"/>
       <c r="CG85" s="21"/>
-      <c r="CI85" s="0"/>
-      <c r="CJ85" s="0"/>
-      <c r="CK85" s="0"/>
-      <c r="CL85" s="0"/>
-      <c r="CM85" s="0"/>
-      <c r="CN85" s="0"/>
-      <c r="CO85" s="0"/>
-      <c r="CP85" s="0"/>
-      <c r="CQ85" s="0"/>
-      <c r="CS85" s="0"/>
-      <c r="CT85" s="0"/>
-      <c r="CU85" s="0"/>
-      <c r="CV85" s="0"/>
-      <c r="CW85" s="0"/>
-      <c r="CX85" s="0"/>
-      <c r="CY85" s="0"/>
-      <c r="CZ85" s="0"/>
-      <c r="DA85" s="0"/>
+      <c r="CI85" s="63"/>
+      <c r="CJ85" s="63"/>
+      <c r="CK85" s="63"/>
+      <c r="CL85" s="63"/>
+      <c r="CM85" s="63"/>
+      <c r="CN85" s="63"/>
+      <c r="CO85" s="63"/>
+      <c r="CP85" s="63"/>
+      <c r="CQ85" s="63"/>
+      <c r="CS85" s="63"/>
+      <c r="CT85" s="63"/>
+      <c r="CU85" s="63"/>
+      <c r="CV85" s="63"/>
+      <c r="CW85" s="63"/>
+      <c r="CX85" s="63"/>
+      <c r="CY85" s="63"/>
+      <c r="CZ85" s="63"/>
+      <c r="DA85" s="63"/>
     </row>
     <row r="86" customFormat="false" ht="43.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="20" t="s">
@@ -55332,20 +55302,20 @@
         <v>391</v>
       </c>
       <c r="CG91" s="43"/>
-      <c r="CI91" s="0"/>
-      <c r="CJ91" s="0"/>
-      <c r="CK91" s="0"/>
-      <c r="CL91" s="0"/>
-      <c r="CM91" s="0"/>
-      <c r="CN91" s="0"/>
-      <c r="CO91" s="0"/>
-      <c r="CP91" s="0"/>
-      <c r="CQ91" s="0"/>
-      <c r="CS91" s="0"/>
-      <c r="CT91" s="0"/>
-      <c r="CU91" s="0"/>
-      <c r="CV91" s="0"/>
-      <c r="CW91" s="0"/>
+      <c r="CI91" s="63"/>
+      <c r="CJ91" s="63"/>
+      <c r="CK91" s="63"/>
+      <c r="CL91" s="63"/>
+      <c r="CM91" s="63"/>
+      <c r="CN91" s="63"/>
+      <c r="CO91" s="63"/>
+      <c r="CP91" s="63"/>
+      <c r="CQ91" s="63"/>
+      <c r="CS91" s="63"/>
+      <c r="CT91" s="63"/>
+      <c r="CU91" s="63"/>
+      <c r="CV91" s="63"/>
+      <c r="CW91" s="63"/>
     </row>
     <row r="92" customFormat="false" ht="42.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="20" t="s">
@@ -56312,24 +56282,24 @@
       <c r="CG97" s="43" t="s">
         <v>559</v>
       </c>
-      <c r="CI97" s="0"/>
-      <c r="CJ97" s="0"/>
-      <c r="CK97" s="0"/>
-      <c r="CL97" s="0"/>
-      <c r="CM97" s="0"/>
-      <c r="CN97" s="0"/>
-      <c r="CO97" s="0"/>
-      <c r="CP97" s="0"/>
-      <c r="CQ97" s="0"/>
-      <c r="CS97" s="0"/>
-      <c r="CT97" s="0"/>
-      <c r="CU97" s="0"/>
-      <c r="CV97" s="0"/>
-      <c r="CW97" s="0"/>
-      <c r="CX97" s="0"/>
-      <c r="CY97" s="0"/>
-      <c r="CZ97" s="0"/>
-      <c r="DA97" s="0"/>
+      <c r="CI97" s="63"/>
+      <c r="CJ97" s="63"/>
+      <c r="CK97" s="63"/>
+      <c r="CL97" s="63"/>
+      <c r="CM97" s="63"/>
+      <c r="CN97" s="63"/>
+      <c r="CO97" s="63"/>
+      <c r="CP97" s="63"/>
+      <c r="CQ97" s="63"/>
+      <c r="CS97" s="63"/>
+      <c r="CT97" s="63"/>
+      <c r="CU97" s="63"/>
+      <c r="CV97" s="63"/>
+      <c r="CW97" s="63"/>
+      <c r="CX97" s="63"/>
+      <c r="CY97" s="63"/>
+      <c r="CZ97" s="63"/>
+      <c r="DA97" s="63"/>
     </row>
     <row r="98" customFormat="false" ht="54.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="20" t="s">
@@ -56944,17 +56914,17 @@
         <v>387</v>
       </c>
       <c r="BI102" s="40"/>
-      <c r="BQ102" s="74" t="s">
+      <c r="BQ102" s="73" t="s">
         <v>234</v>
       </c>
-      <c r="BR102" s="74" t="s">
+      <c r="BR102" s="73" t="s">
         <v>388</v>
       </c>
-      <c r="BS102" s="75"/>
-      <c r="BT102" s="74" t="s">
+      <c r="BS102" s="74"/>
+      <c r="BT102" s="73" t="s">
         <v>389</v>
       </c>
-      <c r="BU102" s="75"/>
+      <c r="BU102" s="74"/>
       <c r="CC102" s="21"/>
       <c r="CD102" s="21"/>
       <c r="CF102" s="21"/>
@@ -57096,38 +57066,38 @@
       <c r="BI103" s="54" t="s">
         <v>402</v>
       </c>
-      <c r="BQ103" s="74" t="s">
+      <c r="BQ103" s="73" t="s">
         <v>398</v>
       </c>
-      <c r="BR103" s="74" t="s">
+      <c r="BR103" s="73" t="s">
         <v>1449</v>
       </c>
-      <c r="BS103" s="75" t="s">
+      <c r="BS103" s="74" t="s">
         <v>404</v>
       </c>
-      <c r="BT103" s="74" t="s">
+      <c r="BT103" s="73" t="s">
         <v>1450</v>
       </c>
-      <c r="BU103" s="75" t="s">
+      <c r="BU103" s="74" t="s">
         <v>406</v>
       </c>
       <c r="CC103" s="21"/>
       <c r="CD103" s="21"/>
       <c r="CF103" s="21"/>
-      <c r="CI103" s="0"/>
-      <c r="CJ103" s="0"/>
-      <c r="CK103" s="0"/>
-      <c r="CL103" s="0"/>
-      <c r="CM103" s="0"/>
-      <c r="CN103" s="0"/>
-      <c r="CO103" s="0"/>
-      <c r="CP103" s="0"/>
-      <c r="CQ103" s="0"/>
-      <c r="CS103" s="0"/>
-      <c r="CT103" s="0"/>
-      <c r="CU103" s="0"/>
-      <c r="CV103" s="0"/>
-      <c r="CW103" s="0"/>
+      <c r="CI103" s="63"/>
+      <c r="CJ103" s="63"/>
+      <c r="CK103" s="63"/>
+      <c r="CL103" s="63"/>
+      <c r="CM103" s="63"/>
+      <c r="CN103" s="63"/>
+      <c r="CO103" s="63"/>
+      <c r="CP103" s="63"/>
+      <c r="CQ103" s="63"/>
+      <c r="CS103" s="63"/>
+      <c r="CT103" s="63"/>
+      <c r="CU103" s="63"/>
+      <c r="CV103" s="63"/>
+      <c r="CW103" s="63"/>
     </row>
     <row r="104" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="20" t="s">
@@ -57236,19 +57206,19 @@
       <c r="BI104" s="54" t="s">
         <v>438</v>
       </c>
-      <c r="BQ104" s="74" t="s">
+      <c r="BQ104" s="73" t="s">
         <v>435</v>
       </c>
-      <c r="BR104" s="74" t="s">
+      <c r="BR104" s="73" t="s">
         <v>1453</v>
       </c>
-      <c r="BS104" s="75" t="s">
+      <c r="BS104" s="74" t="s">
         <v>439</v>
       </c>
-      <c r="BT104" s="74" t="s">
+      <c r="BT104" s="73" t="s">
         <v>1450</v>
       </c>
-      <c r="BU104" s="75" t="s">
+      <c r="BU104" s="74" t="s">
         <v>440</v>
       </c>
       <c r="CC104" s="21"/>
@@ -57367,19 +57337,19 @@
       <c r="BI105" s="54" t="s">
         <v>465</v>
       </c>
-      <c r="BQ105" s="74" t="s">
+      <c r="BQ105" s="73" t="s">
         <v>461</v>
       </c>
-      <c r="BR105" s="74" t="s">
+      <c r="BR105" s="73" t="s">
         <v>1456</v>
       </c>
-      <c r="BS105" s="75" t="s">
+      <c r="BS105" s="74" t="s">
         <v>467</v>
       </c>
-      <c r="BT105" s="74" t="s">
+      <c r="BT105" s="73" t="s">
         <v>1457</v>
       </c>
-      <c r="BU105" s="75" t="s">
+      <c r="BU105" s="74" t="s">
         <v>469</v>
       </c>
       <c r="CC105" s="21"/>
@@ -57531,19 +57501,19 @@
       <c r="BI106" s="54" t="s">
         <v>502</v>
       </c>
-      <c r="BQ106" s="74" t="s">
+      <c r="BQ106" s="73" t="s">
         <v>498</v>
       </c>
-      <c r="BR106" s="74" t="s">
+      <c r="BR106" s="73" t="s">
         <v>1456</v>
       </c>
-      <c r="BS106" s="75" t="s">
+      <c r="BS106" s="74" t="s">
         <v>503</v>
       </c>
-      <c r="BT106" s="74" t="s">
+      <c r="BT106" s="73" t="s">
         <v>1460</v>
       </c>
-      <c r="BU106" s="75" t="s">
+      <c r="BU106" s="74" t="s">
         <v>504</v>
       </c>
       <c r="CC106" s="21"/>
@@ -57711,19 +57681,19 @@
       <c r="BI107" s="54" t="s">
         <v>529</v>
       </c>
-      <c r="BQ107" s="74" t="s">
+      <c r="BQ107" s="73" t="s">
         <v>526</v>
       </c>
-      <c r="BR107" s="74" t="s">
+      <c r="BR107" s="73" t="s">
         <v>1456</v>
       </c>
-      <c r="BS107" s="75" t="s">
+      <c r="BS107" s="74" t="s">
         <v>530</v>
       </c>
-      <c r="BT107" s="74" t="s">
+      <c r="BT107" s="73" t="s">
         <v>1457</v>
       </c>
-      <c r="BU107" s="75" t="s">
+      <c r="BU107" s="74" t="s">
         <v>531</v>
       </c>
       <c r="CC107" s="21"/>
@@ -57891,19 +57861,19 @@
       <c r="BI108" s="54" t="s">
         <v>555</v>
       </c>
-      <c r="BQ108" s="74" t="s">
+      <c r="BQ108" s="73" t="s">
         <v>552</v>
       </c>
-      <c r="BR108" s="74" t="s">
+      <c r="BR108" s="73" t="s">
         <v>1456</v>
       </c>
-      <c r="BS108" s="75" t="s">
+      <c r="BS108" s="74" t="s">
         <v>556</v>
       </c>
-      <c r="BT108" s="74" t="s">
+      <c r="BT108" s="73" t="s">
         <v>1460</v>
       </c>
-      <c r="BU108" s="75" t="s">
+      <c r="BU108" s="74" t="s">
         <v>557</v>
       </c>
       <c r="CC108" s="21"/>
@@ -58071,33 +58041,33 @@
       <c r="BI109" s="54" t="s">
         <v>576</v>
       </c>
-      <c r="BQ109" s="74" t="s">
+      <c r="BQ109" s="73" t="s">
         <v>572</v>
       </c>
-      <c r="BR109" s="74" t="s">
+      <c r="BR109" s="73" t="s">
         <v>1490</v>
       </c>
-      <c r="BS109" s="75" t="s">
+      <c r="BS109" s="74" t="s">
         <v>578</v>
       </c>
-      <c r="BT109" s="74" t="s">
+      <c r="BT109" s="73" t="s">
         <v>1491</v>
       </c>
-      <c r="BU109" s="75" t="s">
+      <c r="BU109" s="74" t="s">
         <v>580</v>
       </c>
       <c r="CC109" s="21"/>
       <c r="CD109" s="21"/>
       <c r="CF109" s="21"/>
-      <c r="CI109" s="0"/>
-      <c r="CJ109" s="0"/>
-      <c r="CK109" s="0"/>
-      <c r="CL109" s="0"/>
-      <c r="CM109" s="0"/>
-      <c r="CN109" s="0"/>
-      <c r="CO109" s="0"/>
-      <c r="CP109" s="0"/>
-      <c r="CQ109" s="0"/>
+      <c r="CI109" s="63"/>
+      <c r="CJ109" s="63"/>
+      <c r="CK109" s="63"/>
+      <c r="CL109" s="63"/>
+      <c r="CM109" s="63"/>
+      <c r="CN109" s="63"/>
+      <c r="CO109" s="63"/>
+      <c r="CP109" s="63"/>
+      <c r="CQ109" s="63"/>
       <c r="CS109" s="45" t="s">
         <v>515</v>
       </c>
@@ -58233,19 +58203,19 @@
       <c r="BI110" s="54" t="s">
         <v>606</v>
       </c>
-      <c r="BQ110" s="74" t="s">
+      <c r="BQ110" s="73" t="s">
         <v>603</v>
       </c>
-      <c r="BR110" s="74" t="s">
+      <c r="BR110" s="73" t="s">
         <v>1449</v>
       </c>
-      <c r="BS110" s="75" t="s">
+      <c r="BS110" s="74" t="s">
         <v>607</v>
       </c>
-      <c r="BT110" s="74" t="s">
+      <c r="BT110" s="73" t="s">
         <v>1495</v>
       </c>
-      <c r="BU110" s="75" t="s">
+      <c r="BU110" s="74" t="s">
         <v>608</v>
       </c>
       <c r="CC110" s="21"/>
@@ -58341,15 +58311,15 @@
       <c r="BG111" s="54"/>
       <c r="BH111" s="40"/>
       <c r="BI111" s="54"/>
-      <c r="BQ111" s="74" t="s">
+      <c r="BQ111" s="73" t="s">
         <v>612</v>
       </c>
-      <c r="BR111" s="74" t="s">
+      <c r="BR111" s="73" t="s">
         <v>1449</v>
       </c>
-      <c r="BS111" s="75"/>
-      <c r="BT111" s="74"/>
-      <c r="BU111" s="75"/>
+      <c r="BS111" s="74"/>
+      <c r="BT111" s="73"/>
+      <c r="BU111" s="74"/>
       <c r="CC111" s="21"/>
       <c r="CD111" s="21"/>
       <c r="CF111" s="21"/>
@@ -58570,17 +58540,17 @@
         <v>387</v>
       </c>
       <c r="BI113" s="40"/>
-      <c r="BQ113" s="74" t="s">
+      <c r="BQ113" s="73" t="s">
         <v>236</v>
       </c>
-      <c r="BR113" s="74" t="s">
+      <c r="BR113" s="73" t="s">
         <v>388</v>
       </c>
-      <c r="BS113" s="75"/>
-      <c r="BT113" s="74" t="s">
+      <c r="BS113" s="74"/>
+      <c r="BT113" s="73" t="s">
         <v>389</v>
       </c>
-      <c r="BU113" s="75"/>
+      <c r="BU113" s="74"/>
       <c r="CC113" s="21"/>
       <c r="CD113" s="21"/>
       <c r="CF113" s="21"/>
@@ -58746,25 +58716,25 @@
       <c r="BI114" s="54" t="s">
         <v>402</v>
       </c>
-      <c r="BQ114" s="74" t="s">
+      <c r="BQ114" s="73" t="s">
         <v>398</v>
       </c>
-      <c r="BR114" s="74" t="s">
+      <c r="BR114" s="73" t="s">
         <v>1522</v>
       </c>
-      <c r="BS114" s="75" t="s">
+      <c r="BS114" s="74" t="s">
         <v>404</v>
       </c>
-      <c r="BT114" s="74" t="s">
+      <c r="BT114" s="73" t="s">
         <v>1523</v>
       </c>
-      <c r="BU114" s="75" t="s">
+      <c r="BU114" s="74" t="s">
         <v>406</v>
       </c>
       <c r="CC114" s="21"/>
       <c r="CD114" s="21"/>
       <c r="CF114" s="21"/>
-      <c r="CI114" s="76" t="s">
+      <c r="CI114" s="75" t="s">
         <v>708</v>
       </c>
       <c r="CJ114" s="55" t="s">
@@ -58926,33 +58896,33 @@
       <c r="BI115" s="54" t="s">
         <v>438</v>
       </c>
-      <c r="BQ115" s="74" t="s">
+      <c r="BQ115" s="73" t="s">
         <v>435</v>
       </c>
-      <c r="BR115" s="74" t="s">
+      <c r="BR115" s="73" t="s">
         <v>1535</v>
       </c>
-      <c r="BS115" s="75" t="s">
+      <c r="BS115" s="74" t="s">
         <v>439</v>
       </c>
-      <c r="BT115" s="74" t="s">
+      <c r="BT115" s="73" t="s">
         <v>1523</v>
       </c>
-      <c r="BU115" s="75" t="s">
+      <c r="BU115" s="74" t="s">
         <v>440</v>
       </c>
       <c r="CC115" s="21"/>
       <c r="CD115" s="21"/>
       <c r="CF115" s="21"/>
-      <c r="CI115" s="0"/>
-      <c r="CJ115" s="0"/>
-      <c r="CK115" s="0"/>
-      <c r="CL115" s="0"/>
-      <c r="CM115" s="0"/>
-      <c r="CN115" s="0"/>
-      <c r="CO115" s="0"/>
-      <c r="CP115" s="0"/>
-      <c r="CQ115" s="0"/>
+      <c r="CI115" s="63"/>
+      <c r="CJ115" s="63"/>
+      <c r="CK115" s="63"/>
+      <c r="CL115" s="63"/>
+      <c r="CM115" s="63"/>
+      <c r="CN115" s="63"/>
+      <c r="CO115" s="63"/>
+      <c r="CP115" s="63"/>
+      <c r="CQ115" s="63"/>
       <c r="CS115" s="45" t="s">
         <v>640</v>
       </c>
@@ -59088,19 +59058,19 @@
       <c r="BI116" s="54" t="s">
         <v>465</v>
       </c>
-      <c r="BQ116" s="74" t="s">
+      <c r="BQ116" s="73" t="s">
         <v>461</v>
       </c>
-      <c r="BR116" s="74" t="s">
+      <c r="BR116" s="73" t="s">
         <v>1549</v>
       </c>
-      <c r="BS116" s="75" t="s">
+      <c r="BS116" s="74" t="s">
         <v>467</v>
       </c>
-      <c r="BT116" s="74" t="s">
+      <c r="BT116" s="73" t="s">
         <v>1550</v>
       </c>
-      <c r="BU116" s="75" t="s">
+      <c r="BU116" s="74" t="s">
         <v>469</v>
       </c>
       <c r="CC116" s="21"/>
@@ -59246,25 +59216,25 @@
       <c r="BI117" s="54" t="s">
         <v>502</v>
       </c>
-      <c r="BQ117" s="74" t="s">
+      <c r="BQ117" s="73" t="s">
         <v>498</v>
       </c>
-      <c r="BR117" s="74" t="s">
+      <c r="BR117" s="73" t="s">
         <v>1549</v>
       </c>
-      <c r="BS117" s="75" t="s">
+      <c r="BS117" s="74" t="s">
         <v>503</v>
       </c>
-      <c r="BT117" s="74" t="s">
+      <c r="BT117" s="73" t="s">
         <v>1562</v>
       </c>
-      <c r="BU117" s="75" t="s">
+      <c r="BU117" s="74" t="s">
         <v>504</v>
       </c>
       <c r="CC117" s="21"/>
       <c r="CD117" s="21"/>
       <c r="CF117" s="21"/>
-      <c r="CI117" s="77" t="s">
+      <c r="CI117" s="76" t="s">
         <v>304</v>
       </c>
       <c r="CJ117" s="28" t="s">
@@ -59418,25 +59388,25 @@
       <c r="BI118" s="54" t="s">
         <v>529</v>
       </c>
-      <c r="BQ118" s="74" t="s">
+      <c r="BQ118" s="73" t="s">
         <v>526</v>
       </c>
-      <c r="BR118" s="74" t="s">
+      <c r="BR118" s="73" t="s">
         <v>1549</v>
       </c>
-      <c r="BS118" s="75" t="s">
+      <c r="BS118" s="74" t="s">
         <v>530</v>
       </c>
-      <c r="BT118" s="74" t="s">
+      <c r="BT118" s="73" t="s">
         <v>1550</v>
       </c>
-      <c r="BU118" s="75" t="s">
+      <c r="BU118" s="74" t="s">
         <v>531</v>
       </c>
       <c r="CC118" s="21"/>
       <c r="CD118" s="21"/>
       <c r="CF118" s="21"/>
-      <c r="CI118" s="76" t="s">
+      <c r="CI118" s="75" t="s">
         <v>1569</v>
       </c>
       <c r="CJ118" s="55" t="s">
@@ -59454,24 +59424,24 @@
       <c r="CN118" s="55" t="s">
         <v>670</v>
       </c>
-      <c r="CO118" s="72" t="s">
+      <c r="CO118" s="71" t="s">
         <v>1574</v>
       </c>
       <c r="CP118" s="55" t="s">
         <v>1575</v>
       </c>
-      <c r="CQ118" s="72" t="s">
+      <c r="CQ118" s="71" t="s">
         <v>1576</v>
       </c>
-      <c r="CS118" s="0"/>
-      <c r="CT118" s="0"/>
-      <c r="CU118" s="0"/>
-      <c r="CV118" s="0"/>
-      <c r="CW118" s="0"/>
-      <c r="CX118" s="0"/>
-      <c r="CY118" s="0"/>
-      <c r="CZ118" s="0"/>
-      <c r="DA118" s="0"/>
+      <c r="CS118" s="63"/>
+      <c r="CT118" s="63"/>
+      <c r="CU118" s="63"/>
+      <c r="CV118" s="63"/>
+      <c r="CW118" s="63"/>
+      <c r="CX118" s="63"/>
+      <c r="CY118" s="63"/>
+      <c r="CZ118" s="63"/>
+      <c r="DA118" s="63"/>
     </row>
     <row r="119" customFormat="false" ht="42.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="20" t="s">
@@ -59580,25 +59550,25 @@
       <c r="BI119" s="54" t="s">
         <v>555</v>
       </c>
-      <c r="BQ119" s="74" t="s">
+      <c r="BQ119" s="73" t="s">
         <v>552</v>
       </c>
-      <c r="BR119" s="74" t="s">
+      <c r="BR119" s="73" t="s">
         <v>1549</v>
       </c>
-      <c r="BS119" s="75" t="s">
+      <c r="BS119" s="74" t="s">
         <v>556</v>
       </c>
-      <c r="BT119" s="74" t="s">
+      <c r="BT119" s="73" t="s">
         <v>1562</v>
       </c>
-      <c r="BU119" s="75" t="s">
+      <c r="BU119" s="74" t="s">
         <v>557</v>
       </c>
       <c r="CC119" s="21"/>
       <c r="CD119" s="21"/>
       <c r="CF119" s="21"/>
-      <c r="CI119" s="76" t="s">
+      <c r="CI119" s="75" t="s">
         <v>1577</v>
       </c>
       <c r="CJ119" s="55" t="s">
@@ -59616,13 +59586,13 @@
       <c r="CN119" s="55" t="s">
         <v>672</v>
       </c>
-      <c r="CO119" s="72" t="s">
+      <c r="CO119" s="71" t="s">
         <v>1581</v>
       </c>
       <c r="CP119" s="55" t="s">
         <v>674</v>
       </c>
-      <c r="CQ119" s="72" t="s">
+      <c r="CQ119" s="71" t="s">
         <v>1582</v>
       </c>
     </row>
@@ -59733,19 +59703,19 @@
       <c r="BI120" s="54" t="s">
         <v>576</v>
       </c>
-      <c r="BQ120" s="74" t="s">
+      <c r="BQ120" s="73" t="s">
         <v>572</v>
       </c>
-      <c r="BR120" s="74" t="s">
+      <c r="BR120" s="73" t="s">
         <v>1591</v>
       </c>
-      <c r="BS120" s="75" t="s">
+      <c r="BS120" s="74" t="s">
         <v>578</v>
       </c>
-      <c r="BT120" s="74" t="s">
+      <c r="BT120" s="73" t="s">
         <v>1592</v>
       </c>
-      <c r="BU120" s="75" t="s">
+      <c r="BU120" s="74" t="s">
         <v>580</v>
       </c>
       <c r="CC120" s="21"/>
@@ -59769,13 +59739,13 @@
       <c r="CN120" s="55" t="s">
         <v>1597</v>
       </c>
-      <c r="CO120" s="72" t="s">
+      <c r="CO120" s="71" t="s">
         <v>1598</v>
       </c>
       <c r="CP120" s="55" t="s">
         <v>1599</v>
       </c>
-      <c r="CQ120" s="72" t="s">
+      <c r="CQ120" s="71" t="s">
         <v>1600</v>
       </c>
       <c r="CS120" s="45" t="s">
@@ -59883,33 +59853,33 @@
       <c r="BI121" s="54" t="s">
         <v>606</v>
       </c>
-      <c r="BQ121" s="74" t="s">
+      <c r="BQ121" s="73" t="s">
         <v>603</v>
       </c>
-      <c r="BR121" s="74" t="s">
+      <c r="BR121" s="73" t="s">
         <v>1605</v>
       </c>
-      <c r="BS121" s="75" t="s">
+      <c r="BS121" s="74" t="s">
         <v>607</v>
       </c>
-      <c r="BT121" s="74" t="s">
+      <c r="BT121" s="73" t="s">
         <v>1523</v>
       </c>
-      <c r="BU121" s="75" t="s">
+      <c r="BU121" s="74" t="s">
         <v>608</v>
       </c>
       <c r="CC121" s="21"/>
       <c r="CD121" s="21"/>
       <c r="CF121" s="21"/>
-      <c r="CI121" s="0"/>
-      <c r="CJ121" s="0"/>
-      <c r="CK121" s="0"/>
-      <c r="CL121" s="0"/>
-      <c r="CM121" s="0"/>
-      <c r="CN121" s="0"/>
-      <c r="CO121" s="0"/>
-      <c r="CP121" s="0"/>
-      <c r="CQ121" s="0"/>
+      <c r="CI121" s="63"/>
+      <c r="CJ121" s="63"/>
+      <c r="CK121" s="63"/>
+      <c r="CL121" s="63"/>
+      <c r="CM121" s="63"/>
+      <c r="CN121" s="63"/>
+      <c r="CO121" s="63"/>
+      <c r="CP121" s="63"/>
+      <c r="CQ121" s="63"/>
       <c r="CS121" s="67" t="s">
         <v>423</v>
       </c>
@@ -59985,15 +59955,15 @@
       <c r="BG122" s="54"/>
       <c r="BH122" s="40"/>
       <c r="BI122" s="54"/>
-      <c r="BQ122" s="74" t="s">
+      <c r="BQ122" s="73" t="s">
         <v>612</v>
       </c>
-      <c r="BR122" s="74" t="s">
+      <c r="BR122" s="73" t="s">
         <v>1605</v>
       </c>
-      <c r="BS122" s="75"/>
-      <c r="BT122" s="74"/>
-      <c r="BU122" s="75"/>
+      <c r="BS122" s="74"/>
+      <c r="BT122" s="73"/>
+      <c r="BU122" s="74"/>
       <c r="CC122" s="21"/>
       <c r="CD122" s="21"/>
       <c r="CF122" s="21"/>
@@ -60146,17 +60116,17 @@
         <v>387</v>
       </c>
       <c r="BI124" s="40"/>
-      <c r="BQ124" s="74" t="s">
+      <c r="BQ124" s="73" t="s">
         <v>238</v>
       </c>
-      <c r="BR124" s="74" t="s">
+      <c r="BR124" s="73" t="s">
         <v>388</v>
       </c>
-      <c r="BS124" s="75"/>
-      <c r="BT124" s="74" t="s">
+      <c r="BS124" s="74"/>
+      <c r="BT124" s="73" t="s">
         <v>389</v>
       </c>
-      <c r="BU124" s="75"/>
+      <c r="BU124" s="74"/>
       <c r="CC124" s="21"/>
       <c r="CD124" s="21"/>
       <c r="CF124" s="21"/>
@@ -60278,19 +60248,19 @@
       <c r="BI125" s="54" t="s">
         <v>402</v>
       </c>
-      <c r="BQ125" s="74" t="s">
+      <c r="BQ125" s="73" t="s">
         <v>398</v>
       </c>
-      <c r="BR125" s="74" t="s">
+      <c r="BR125" s="73" t="s">
         <v>1626</v>
       </c>
-      <c r="BS125" s="75" t="s">
+      <c r="BS125" s="74" t="s">
         <v>404</v>
       </c>
-      <c r="BT125" s="74" t="s">
+      <c r="BT125" s="73" t="s">
         <v>1627</v>
       </c>
-      <c r="BU125" s="75" t="s">
+      <c r="BU125" s="74" t="s">
         <v>406</v>
       </c>
       <c r="CC125" s="21"/>
@@ -60426,19 +60396,19 @@
       <c r="BI126" s="54" t="s">
         <v>438</v>
       </c>
-      <c r="BQ126" s="74" t="s">
+      <c r="BQ126" s="73" t="s">
         <v>435</v>
       </c>
-      <c r="BR126" s="74" t="s">
+      <c r="BR126" s="73" t="s">
         <v>1638</v>
       </c>
-      <c r="BS126" s="75" t="s">
+      <c r="BS126" s="74" t="s">
         <v>439</v>
       </c>
-      <c r="BT126" s="74" t="s">
+      <c r="BT126" s="73" t="s">
         <v>1627</v>
       </c>
-      <c r="BU126" s="75" t="s">
+      <c r="BU126" s="74" t="s">
         <v>440</v>
       </c>
       <c r="CC126" s="21"/>
@@ -60574,33 +60544,33 @@
       <c r="BI127" s="54" t="s">
         <v>465</v>
       </c>
-      <c r="BQ127" s="74" t="s">
+      <c r="BQ127" s="73" t="s">
         <v>461</v>
       </c>
-      <c r="BR127" s="74" t="s">
+      <c r="BR127" s="73" t="s">
         <v>1647</v>
       </c>
-      <c r="BS127" s="75" t="s">
+      <c r="BS127" s="74" t="s">
         <v>467</v>
       </c>
-      <c r="BT127" s="74" t="s">
+      <c r="BT127" s="73" t="s">
         <v>1648</v>
       </c>
-      <c r="BU127" s="75" t="s">
+      <c r="BU127" s="74" t="s">
         <v>469</v>
       </c>
       <c r="CC127" s="21"/>
       <c r="CD127" s="21"/>
       <c r="CF127" s="21"/>
-      <c r="CI127" s="0"/>
-      <c r="CJ127" s="0"/>
-      <c r="CK127" s="0"/>
-      <c r="CL127" s="0"/>
-      <c r="CM127" s="0"/>
-      <c r="CN127" s="0"/>
-      <c r="CO127" s="0"/>
-      <c r="CP127" s="0"/>
-      <c r="CQ127" s="0"/>
+      <c r="CI127" s="63"/>
+      <c r="CJ127" s="63"/>
+      <c r="CK127" s="63"/>
+      <c r="CL127" s="63"/>
+      <c r="CM127" s="63"/>
+      <c r="CN127" s="63"/>
+      <c r="CO127" s="63"/>
+      <c r="CP127" s="63"/>
+      <c r="CQ127" s="63"/>
       <c r="CS127" s="67" t="s">
         <v>594</v>
       </c>
@@ -60702,19 +60672,19 @@
       <c r="BI128" s="54" t="s">
         <v>502</v>
       </c>
-      <c r="BQ128" s="74" t="s">
+      <c r="BQ128" s="73" t="s">
         <v>498</v>
       </c>
-      <c r="BR128" s="74" t="s">
+      <c r="BR128" s="73" t="s">
         <v>1647</v>
       </c>
-      <c r="BS128" s="75" t="s">
+      <c r="BS128" s="74" t="s">
         <v>503</v>
       </c>
-      <c r="BT128" s="74" t="s">
+      <c r="BT128" s="73" t="s">
         <v>1655</v>
       </c>
-      <c r="BU128" s="75" t="s">
+      <c r="BU128" s="74" t="s">
         <v>504</v>
       </c>
       <c r="CC128" s="21"/>
@@ -60819,19 +60789,19 @@
       <c r="BI129" s="54" t="s">
         <v>529</v>
       </c>
-      <c r="BQ129" s="74" t="s">
+      <c r="BQ129" s="73" t="s">
         <v>526</v>
       </c>
-      <c r="BR129" s="74" t="s">
+      <c r="BR129" s="73" t="s">
         <v>1663</v>
       </c>
-      <c r="BS129" s="75" t="s">
+      <c r="BS129" s="74" t="s">
         <v>530</v>
       </c>
-      <c r="BT129" s="74" t="s">
+      <c r="BT129" s="73" t="s">
         <v>1648</v>
       </c>
-      <c r="BU129" s="75" t="s">
+      <c r="BU129" s="74" t="s">
         <v>531</v>
       </c>
       <c r="CC129" s="21"/>
@@ -60959,19 +60929,19 @@
       <c r="BI130" s="54" t="s">
         <v>555</v>
       </c>
-      <c r="BQ130" s="74" t="s">
+      <c r="BQ130" s="73" t="s">
         <v>552</v>
       </c>
-      <c r="BR130" s="74" t="s">
+      <c r="BR130" s="73" t="s">
         <v>1647</v>
       </c>
-      <c r="BS130" s="75" t="s">
+      <c r="BS130" s="74" t="s">
         <v>556</v>
       </c>
-      <c r="BT130" s="74" t="s">
+      <c r="BT130" s="73" t="s">
         <v>1655</v>
       </c>
-      <c r="BU130" s="75" t="s">
+      <c r="BU130" s="74" t="s">
         <v>557</v>
       </c>
       <c r="CC130" s="21"/>
@@ -61107,19 +61077,19 @@
       <c r="BI131" s="54" t="s">
         <v>576</v>
       </c>
-      <c r="BQ131" s="74" t="s">
+      <c r="BQ131" s="73" t="s">
         <v>572</v>
       </c>
-      <c r="BR131" s="74" t="s">
+      <c r="BR131" s="73" t="s">
         <v>1675</v>
       </c>
-      <c r="BS131" s="75" t="s">
+      <c r="BS131" s="74" t="s">
         <v>578</v>
       </c>
-      <c r="BT131" s="74" t="s">
+      <c r="BT131" s="73" t="s">
         <v>1676</v>
       </c>
-      <c r="BU131" s="75" t="s">
+      <c r="BU131" s="74" t="s">
         <v>580</v>
       </c>
       <c r="CC131" s="21"/>
@@ -61255,19 +61225,19 @@
       <c r="BI132" s="54" t="s">
         <v>606</v>
       </c>
-      <c r="BQ132" s="74" t="s">
+      <c r="BQ132" s="73" t="s">
         <v>603</v>
       </c>
-      <c r="BR132" s="74" t="s">
+      <c r="BR132" s="73" t="s">
         <v>1683</v>
       </c>
-      <c r="BS132" s="75" t="s">
+      <c r="BS132" s="74" t="s">
         <v>607</v>
       </c>
-      <c r="BT132" s="74" t="s">
+      <c r="BT132" s="73" t="s">
         <v>1627</v>
       </c>
-      <c r="BU132" s="75" t="s">
+      <c r="BU132" s="74" t="s">
         <v>608</v>
       </c>
       <c r="CC132" s="21"/>
@@ -61397,36 +61367,36 @@
       <c r="BG133" s="54"/>
       <c r="BH133" s="40"/>
       <c r="BI133" s="54"/>
-      <c r="BQ133" s="74" t="s">
+      <c r="BQ133" s="73" t="s">
         <v>612</v>
       </c>
-      <c r="BR133" s="74" t="s">
+      <c r="BR133" s="73" t="s">
         <v>1692</v>
       </c>
-      <c r="BS133" s="75"/>
-      <c r="BT133" s="74"/>
-      <c r="BU133" s="75"/>
+      <c r="BS133" s="74"/>
+      <c r="BT133" s="73"/>
+      <c r="BU133" s="74"/>
       <c r="CC133" s="21"/>
       <c r="CD133" s="21"/>
       <c r="CF133" s="21"/>
-      <c r="CI133" s="0"/>
-      <c r="CJ133" s="0"/>
-      <c r="CK133" s="0"/>
-      <c r="CL133" s="0"/>
-      <c r="CM133" s="0"/>
-      <c r="CN133" s="0"/>
-      <c r="CO133" s="0"/>
-      <c r="CP133" s="0"/>
-      <c r="CQ133" s="0"/>
-      <c r="CS133" s="0"/>
-      <c r="CT133" s="0"/>
-      <c r="CU133" s="0"/>
-      <c r="CV133" s="0"/>
-      <c r="CW133" s="0"/>
-      <c r="CX133" s="0"/>
-      <c r="CY133" s="0"/>
-      <c r="CZ133" s="0"/>
-      <c r="DA133" s="0"/>
+      <c r="CI133" s="63"/>
+      <c r="CJ133" s="63"/>
+      <c r="CK133" s="63"/>
+      <c r="CL133" s="63"/>
+      <c r="CM133" s="63"/>
+      <c r="CN133" s="63"/>
+      <c r="CO133" s="63"/>
+      <c r="CP133" s="63"/>
+      <c r="CQ133" s="63"/>
+      <c r="CS133" s="63"/>
+      <c r="CT133" s="63"/>
+      <c r="CU133" s="63"/>
+      <c r="CV133" s="63"/>
+      <c r="CW133" s="63"/>
+      <c r="CX133" s="63"/>
+      <c r="CY133" s="63"/>
+      <c r="CZ133" s="63"/>
+      <c r="DA133" s="63"/>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="20" t="s">
@@ -62048,20 +62018,20 @@
       <c r="CC139" s="21"/>
       <c r="CD139" s="21"/>
       <c r="CF139" s="21"/>
-      <c r="CI139" s="0"/>
-      <c r="CJ139" s="0"/>
-      <c r="CK139" s="0"/>
-      <c r="CL139" s="0"/>
-      <c r="CM139" s="0"/>
-      <c r="CN139" s="0"/>
-      <c r="CO139" s="0"/>
-      <c r="CP139" s="0"/>
-      <c r="CQ139" s="0"/>
-      <c r="CS139" s="0"/>
-      <c r="CT139" s="0"/>
-      <c r="CU139" s="0"/>
-      <c r="CV139" s="0"/>
-      <c r="CW139" s="0"/>
+      <c r="CI139" s="63"/>
+      <c r="CJ139" s="63"/>
+      <c r="CK139" s="63"/>
+      <c r="CL139" s="63"/>
+      <c r="CM139" s="63"/>
+      <c r="CN139" s="63"/>
+      <c r="CO139" s="63"/>
+      <c r="CP139" s="63"/>
+      <c r="CQ139" s="63"/>
+      <c r="CS139" s="63"/>
+      <c r="CT139" s="63"/>
+      <c r="CU139" s="63"/>
+      <c r="CV139" s="63"/>
+      <c r="CW139" s="63"/>
     </row>
     <row r="140" customFormat="false" ht="40.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="20" t="s">
@@ -62364,7 +62334,7 @@
       <c r="BI142" s="54" t="s">
         <v>576</v>
       </c>
-      <c r="BQ142" s="78" t="s">
+      <c r="BQ142" s="77" t="s">
         <v>572</v>
       </c>
       <c r="BR142" s="26" t="s">
@@ -62666,7 +62636,7 @@
       <c r="CC144" s="21"/>
       <c r="CD144" s="21"/>
       <c r="CF144" s="21"/>
-      <c r="CI144" s="76" t="s">
+      <c r="CI144" s="75" t="s">
         <v>708</v>
       </c>
       <c r="CJ144" s="55" t="s">
@@ -62768,15 +62738,15 @@
       <c r="CC145" s="21"/>
       <c r="CD145" s="21"/>
       <c r="CF145" s="21"/>
-      <c r="CI145" s="0"/>
-      <c r="CJ145" s="0"/>
-      <c r="CK145" s="0"/>
-      <c r="CL145" s="0"/>
-      <c r="CM145" s="0"/>
-      <c r="CN145" s="0"/>
-      <c r="CO145" s="0"/>
-      <c r="CP145" s="0"/>
-      <c r="CQ145" s="0"/>
+      <c r="CI145" s="63"/>
+      <c r="CJ145" s="63"/>
+      <c r="CK145" s="63"/>
+      <c r="CL145" s="63"/>
+      <c r="CM145" s="63"/>
+      <c r="CN145" s="63"/>
+      <c r="CO145" s="63"/>
+      <c r="CP145" s="63"/>
+      <c r="CQ145" s="63"/>
       <c r="CS145" s="45" t="s">
         <v>515</v>
       </c>
@@ -62857,15 +62827,15 @@
       <c r="CC146" s="21"/>
       <c r="CD146" s="21"/>
       <c r="CF146" s="21"/>
-      <c r="CI146" s="0"/>
-      <c r="CJ146" s="0"/>
-      <c r="CK146" s="0"/>
-      <c r="CL146" s="0"/>
-      <c r="CM146" s="0"/>
-      <c r="CN146" s="0"/>
-      <c r="CO146" s="0"/>
-      <c r="CP146" s="0"/>
-      <c r="CQ146" s="0"/>
+      <c r="CI146" s="63"/>
+      <c r="CJ146" s="63"/>
+      <c r="CK146" s="63"/>
+      <c r="CL146" s="63"/>
+      <c r="CM146" s="63"/>
+      <c r="CN146" s="63"/>
+      <c r="CO146" s="63"/>
+      <c r="CP146" s="63"/>
+      <c r="CQ146" s="63"/>
       <c r="CS146" s="45" t="s">
         <v>543</v>
       </c>
@@ -62975,15 +62945,15 @@
       <c r="CC147" s="21"/>
       <c r="CD147" s="21"/>
       <c r="CF147" s="21"/>
-      <c r="CI147" s="0"/>
-      <c r="CJ147" s="0"/>
-      <c r="CK147" s="0"/>
-      <c r="CL147" s="0"/>
-      <c r="CM147" s="0"/>
-      <c r="CN147" s="0"/>
-      <c r="CO147" s="0"/>
-      <c r="CP147" s="0"/>
-      <c r="CQ147" s="0"/>
+      <c r="CI147" s="63"/>
+      <c r="CJ147" s="63"/>
+      <c r="CK147" s="63"/>
+      <c r="CL147" s="63"/>
+      <c r="CM147" s="63"/>
+      <c r="CN147" s="63"/>
+      <c r="CO147" s="63"/>
+      <c r="CP147" s="63"/>
+      <c r="CQ147" s="63"/>
       <c r="CS147" s="45" t="s">
         <v>565</v>
       </c>
@@ -63105,15 +63075,15 @@
       <c r="CC148" s="21"/>
       <c r="CD148" s="21"/>
       <c r="CF148" s="21"/>
-      <c r="CI148" s="0"/>
-      <c r="CJ148" s="0"/>
-      <c r="CK148" s="0"/>
-      <c r="CL148" s="0"/>
-      <c r="CM148" s="0"/>
-      <c r="CN148" s="0"/>
-      <c r="CO148" s="0"/>
-      <c r="CP148" s="0"/>
-      <c r="CQ148" s="0"/>
+      <c r="CI148" s="63"/>
+      <c r="CJ148" s="63"/>
+      <c r="CK148" s="63"/>
+      <c r="CL148" s="63"/>
+      <c r="CM148" s="63"/>
+      <c r="CN148" s="63"/>
+      <c r="CO148" s="63"/>
+      <c r="CP148" s="63"/>
+      <c r="CQ148" s="63"/>
       <c r="CS148" s="67" t="s">
         <v>594</v>
       </c>
@@ -63235,15 +63205,15 @@
       <c r="CC149" s="21"/>
       <c r="CD149" s="21"/>
       <c r="CF149" s="21"/>
-      <c r="CI149" s="0"/>
-      <c r="CJ149" s="0"/>
-      <c r="CK149" s="0"/>
-      <c r="CL149" s="0"/>
-      <c r="CM149" s="0"/>
-      <c r="CN149" s="0"/>
-      <c r="CO149" s="0"/>
-      <c r="CP149" s="0"/>
-      <c r="CQ149" s="0"/>
+      <c r="CI149" s="63"/>
+      <c r="CJ149" s="63"/>
+      <c r="CK149" s="63"/>
+      <c r="CL149" s="63"/>
+      <c r="CM149" s="63"/>
+      <c r="CN149" s="63"/>
+      <c r="CO149" s="63"/>
+      <c r="CP149" s="63"/>
+      <c r="CQ149" s="63"/>
       <c r="CS149" s="67" t="s">
         <v>618</v>
       </c>
@@ -63849,15 +63819,15 @@
       <c r="CC154" s="21"/>
       <c r="CD154" s="21"/>
       <c r="CF154" s="21"/>
-      <c r="CS154" s="0"/>
-      <c r="CT154" s="0"/>
-      <c r="CU154" s="0"/>
-      <c r="CV154" s="0"/>
-      <c r="CW154" s="0"/>
-      <c r="CX154" s="0"/>
-      <c r="CY154" s="0"/>
-      <c r="CZ154" s="0"/>
-      <c r="DA154" s="0"/>
+      <c r="CS154" s="63"/>
+      <c r="CT154" s="63"/>
+      <c r="CU154" s="63"/>
+      <c r="CV154" s="63"/>
+      <c r="CW154" s="63"/>
+      <c r="CX154" s="63"/>
+      <c r="CY154" s="63"/>
+      <c r="CZ154" s="63"/>
+      <c r="DA154" s="63"/>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="20" t="s">
@@ -64372,11 +64342,11 @@
       <c r="CC161" s="21"/>
       <c r="CD161" s="21"/>
       <c r="CF161" s="21"/>
-      <c r="CS161" s="0"/>
-      <c r="CT161" s="0"/>
-      <c r="CU161" s="0"/>
-      <c r="CV161" s="0"/>
-      <c r="CW161" s="0"/>
+      <c r="CS161" s="63"/>
+      <c r="CT161" s="63"/>
+      <c r="CU161" s="63"/>
+      <c r="CV161" s="63"/>
+      <c r="CW161" s="63"/>
     </row>
     <row r="162" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="20" t="s">
@@ -65811,15 +65781,15 @@
       <c r="CC176" s="21"/>
       <c r="CD176" s="21"/>
       <c r="CF176" s="21"/>
-      <c r="CS176" s="0"/>
-      <c r="CT176" s="0"/>
-      <c r="CU176" s="0"/>
-      <c r="CV176" s="0"/>
-      <c r="CW176" s="0"/>
-      <c r="CX176" s="0"/>
-      <c r="CY176" s="0"/>
-      <c r="CZ176" s="0"/>
-      <c r="DA176" s="0"/>
+      <c r="CS176" s="63"/>
+      <c r="CT176" s="63"/>
+      <c r="CU176" s="63"/>
+      <c r="CV176" s="63"/>
+      <c r="CW176" s="63"/>
+      <c r="CX176" s="63"/>
+      <c r="CY176" s="63"/>
+      <c r="CZ176" s="63"/>
+      <c r="DA176" s="63"/>
     </row>
     <row r="177" customFormat="false" ht="42.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="20" t="s">
@@ -66243,11 +66213,11 @@
       <c r="CC182" s="21"/>
       <c r="CD182" s="21"/>
       <c r="CF182" s="21"/>
-      <c r="CS182" s="0"/>
-      <c r="CT182" s="0"/>
-      <c r="CU182" s="0"/>
-      <c r="CV182" s="0"/>
-      <c r="CW182" s="0"/>
+      <c r="CS182" s="63"/>
+      <c r="CT182" s="63"/>
+      <c r="CU182" s="63"/>
+      <c r="CV182" s="63"/>
+      <c r="CW182" s="63"/>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="20" t="s">
@@ -66850,15 +66820,15 @@
       <c r="CL188" s="21"/>
       <c r="CN188" s="21"/>
       <c r="CP188" s="21"/>
-      <c r="CS188" s="0"/>
-      <c r="CT188" s="0"/>
-      <c r="CU188" s="0"/>
-      <c r="CV188" s="0"/>
-      <c r="CW188" s="0"/>
-      <c r="CX188" s="0"/>
-      <c r="CY188" s="0"/>
-      <c r="CZ188" s="0"/>
-      <c r="DA188" s="0"/>
+      <c r="CS188" s="63"/>
+      <c r="CT188" s="63"/>
+      <c r="CU188" s="63"/>
+      <c r="CV188" s="63"/>
+      <c r="CW188" s="63"/>
+      <c r="CX188" s="63"/>
+      <c r="CY188" s="63"/>
+      <c r="CZ188" s="63"/>
+      <c r="DA188" s="63"/>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="20" t="s">
@@ -68020,15 +67990,15 @@
       <c r="CL200" s="21"/>
       <c r="CN200" s="21"/>
       <c r="CP200" s="21"/>
-      <c r="CS200" s="0"/>
-      <c r="CT200" s="0"/>
-      <c r="CU200" s="0"/>
-      <c r="CV200" s="0"/>
-      <c r="CW200" s="0"/>
-      <c r="CX200" s="0"/>
-      <c r="CY200" s="0"/>
-      <c r="CZ200" s="0"/>
-      <c r="DA200" s="0"/>
+      <c r="CS200" s="63"/>
+      <c r="CT200" s="63"/>
+      <c r="CU200" s="63"/>
+      <c r="CV200" s="63"/>
+      <c r="CW200" s="63"/>
+      <c r="CX200" s="63"/>
+      <c r="CY200" s="63"/>
+      <c r="CZ200" s="63"/>
+      <c r="DA200" s="63"/>
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B201" s="21"/>
@@ -72376,13 +72346,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AMJ66"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -72393,23 +72363,23 @@
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="19" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="19" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="19" width="26.12"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="19" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="19" width="18.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="19" width="18.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="19" width="22.76"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="19" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="19" width="23.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="19" width="19.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="19" width="48.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="19" width="48.93"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="11" style="19" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="79" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="78" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="79" t="s">
         <v>1954</v>
       </c>
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="79" t="s">
         <v>1955</v>
       </c>
       <c r="C1" s="21" t="s">
@@ -72418,19 +72388,19 @@
       <c r="D1" s="21" t="s">
         <v>1957</v>
       </c>
-      <c r="E1" s="80" t="s">
+      <c r="E1" s="79" t="s">
         <v>1958</v>
       </c>
-      <c r="F1" s="80" t="s">
+      <c r="F1" s="79" t="s">
         <v>1959</v>
       </c>
-      <c r="G1" s="80" t="s">
+      <c r="G1" s="79" t="s">
         <v>1960</v>
       </c>
       <c r="H1" s="21" t="s">
         <v>1961</v>
       </c>
-      <c r="I1" s="80" t="s">
+      <c r="I1" s="79" t="s">
         <v>1962</v>
       </c>
       <c r="J1" s="21" t="s">
@@ -72448,8 +72418,8 @@
       <c r="N1" s="21" t="s">
         <v>1967</v>
       </c>
-      <c r="AMI1" s="79"/>
-      <c r="AMJ1" s="79"/>
+      <c r="AMI1" s="78"/>
+      <c r="AMJ1" s="78"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="19" t="s">
@@ -72461,16 +72431,16 @@
       <c r="C2" s="19" t="s">
         <v>1956</v>
       </c>
-      <c r="E2" s="81" t="s">
+      <c r="E2" s="80" t="s">
         <v>1969</v>
       </c>
-      <c r="F2" s="81" t="s">
+      <c r="F2" s="80" t="s">
         <v>1970</v>
       </c>
-      <c r="G2" s="81" t="s">
+      <c r="G2" s="80" t="s">
         <v>1971</v>
       </c>
-      <c r="H2" s="81" t="s">
+      <c r="H2" s="80" t="s">
         <v>1972</v>
       </c>
       <c r="I2" s="19" t="s">
@@ -72479,16 +72449,16 @@
       <c r="J2" s="19" t="s">
         <v>1974</v>
       </c>
-      <c r="K2" s="81" t="s">
+      <c r="K2" s="80" t="s">
         <v>1975</v>
       </c>
-      <c r="L2" s="81" t="s">
+      <c r="L2" s="80" t="s">
         <v>1976</v>
       </c>
-      <c r="M2" s="81" t="s">
+      <c r="M2" s="80" t="s">
         <v>1977</v>
       </c>
-      <c r="N2" s="81" t="s">
+      <c r="N2" s="80" t="s">
         <v>1978</v>
       </c>
     </row>
@@ -72502,16 +72472,16 @@
       <c r="C3" s="19" t="s">
         <v>1956</v>
       </c>
-      <c r="E3" s="81" t="s">
+      <c r="E3" s="80" t="s">
         <v>1980</v>
       </c>
-      <c r="F3" s="81" t="s">
+      <c r="F3" s="80" t="s">
         <v>1981</v>
       </c>
-      <c r="G3" s="81" t="s">
+      <c r="G3" s="80" t="s">
         <v>1982</v>
       </c>
-      <c r="H3" s="81" t="s">
+      <c r="H3" s="80" t="s">
         <v>1983</v>
       </c>
       <c r="I3" s="19" t="s">
@@ -72520,16 +72490,16 @@
       <c r="J3" s="19" t="s">
         <v>1985</v>
       </c>
-      <c r="K3" s="81" t="s">
+      <c r="K3" s="80" t="s">
         <v>1986</v>
       </c>
-      <c r="L3" s="81" t="s">
+      <c r="L3" s="80" t="s">
         <v>1987</v>
       </c>
-      <c r="M3" s="81" t="s">
+      <c r="M3" s="80" t="s">
         <v>1988</v>
       </c>
-      <c r="N3" s="81" t="s">
+      <c r="N3" s="80" t="s">
         <v>1989</v>
       </c>
     </row>
@@ -72543,16 +72513,16 @@
       <c r="C4" s="19" t="s">
         <v>1956</v>
       </c>
-      <c r="E4" s="81" t="s">
+      <c r="E4" s="80" t="s">
         <v>1991</v>
       </c>
-      <c r="F4" s="81" t="s">
+      <c r="F4" s="80" t="s">
         <v>1992</v>
       </c>
-      <c r="G4" s="81" t="s">
+      <c r="G4" s="80" t="s">
         <v>1993</v>
       </c>
-      <c r="H4" s="81" t="s">
+      <c r="H4" s="80" t="s">
         <v>1994</v>
       </c>
       <c r="I4" s="19" t="s">
@@ -72561,16 +72531,16 @@
       <c r="J4" s="19" t="s">
         <v>1996</v>
       </c>
-      <c r="K4" s="81" t="s">
+      <c r="K4" s="80" t="s">
         <v>1997</v>
       </c>
-      <c r="L4" s="81" t="s">
+      <c r="L4" s="80" t="s">
         <v>1998</v>
       </c>
-      <c r="M4" s="81" t="s">
+      <c r="M4" s="80" t="s">
         <v>1999</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="80" t="s">
         <v>2000</v>
       </c>
     </row>
@@ -72584,16 +72554,16 @@
       <c r="C5" s="19" t="s">
         <v>1956</v>
       </c>
-      <c r="E5" s="81" t="s">
+      <c r="E5" s="80" t="s">
         <v>2002</v>
       </c>
-      <c r="F5" s="81" t="s">
+      <c r="F5" s="80" t="s">
         <v>2003</v>
       </c>
-      <c r="G5" s="81" t="s">
+      <c r="G5" s="80" t="s">
         <v>2004</v>
       </c>
-      <c r="H5" s="81" t="s">
+      <c r="H5" s="80" t="s">
         <v>2005</v>
       </c>
       <c r="I5" s="19" t="s">
@@ -72602,16 +72572,16 @@
       <c r="J5" s="19" t="s">
         <v>2007</v>
       </c>
-      <c r="K5" s="81" t="s">
+      <c r="K5" s="80" t="s">
         <v>2008</v>
       </c>
-      <c r="L5" s="81" t="s">
+      <c r="L5" s="80" t="s">
         <v>2009</v>
       </c>
-      <c r="M5" s="81" t="s">
+      <c r="M5" s="80" t="s">
         <v>2010</v>
       </c>
-      <c r="N5" s="81" t="s">
+      <c r="N5" s="80" t="s">
         <v>2011</v>
       </c>
     </row>
@@ -72625,16 +72595,16 @@
       <c r="C6" s="19" t="s">
         <v>1956</v>
       </c>
-      <c r="E6" s="81" t="s">
+      <c r="E6" s="80" t="s">
         <v>2013</v>
       </c>
-      <c r="F6" s="81" t="s">
+      <c r="F6" s="80" t="s">
         <v>2014</v>
       </c>
-      <c r="G6" s="81" t="s">
+      <c r="G6" s="80" t="s">
         <v>2015</v>
       </c>
-      <c r="H6" s="81" t="s">
+      <c r="H6" s="80" t="s">
         <v>2016</v>
       </c>
       <c r="I6" s="19" t="s">
@@ -72643,16 +72613,16 @@
       <c r="J6" s="19" t="s">
         <v>2018</v>
       </c>
-      <c r="K6" s="81" t="s">
+      <c r="K6" s="80" t="s">
         <v>2019</v>
       </c>
-      <c r="L6" s="81" t="s">
+      <c r="L6" s="80" t="s">
         <v>2020</v>
       </c>
-      <c r="M6" s="81" t="s">
+      <c r="M6" s="80" t="s">
         <v>2021</v>
       </c>
-      <c r="N6" s="81" t="s">
+      <c r="N6" s="80" t="s">
         <v>2022</v>
       </c>
     </row>
@@ -72666,16 +72636,16 @@
       <c r="C7" s="19" t="s">
         <v>1956</v>
       </c>
-      <c r="E7" s="81" t="s">
+      <c r="E7" s="80" t="s">
         <v>2024</v>
       </c>
-      <c r="F7" s="81" t="s">
+      <c r="F7" s="80" t="s">
         <v>2025</v>
       </c>
-      <c r="G7" s="81" t="s">
+      <c r="G7" s="80" t="s">
         <v>2026</v>
       </c>
-      <c r="H7" s="81" t="s">
+      <c r="H7" s="80" t="s">
         <v>2027</v>
       </c>
       <c r="I7" s="19" t="s">
@@ -72684,16 +72654,16 @@
       <c r="J7" s="19" t="s">
         <v>2029</v>
       </c>
-      <c r="K7" s="81" t="s">
+      <c r="K7" s="80" t="s">
         <v>2030</v>
       </c>
-      <c r="L7" s="81" t="s">
+      <c r="L7" s="80" t="s">
         <v>2031</v>
       </c>
-      <c r="M7" s="81" t="s">
+      <c r="M7" s="80" t="s">
         <v>2032</v>
       </c>
-      <c r="N7" s="81" t="s">
+      <c r="N7" s="80" t="s">
         <v>2033</v>
       </c>
     </row>
@@ -72707,16 +72677,16 @@
       <c r="C8" s="19" t="s">
         <v>1956</v>
       </c>
-      <c r="E8" s="81" t="s">
+      <c r="E8" s="80" t="s">
         <v>2035</v>
       </c>
-      <c r="F8" s="81" t="s">
+      <c r="F8" s="80" t="s">
         <v>2036</v>
       </c>
-      <c r="G8" s="81" t="s">
+      <c r="G8" s="80" t="s">
         <v>2037</v>
       </c>
-      <c r="H8" s="81" t="s">
+      <c r="H8" s="80" t="s">
         <v>2038</v>
       </c>
       <c r="I8" s="19" t="s">
@@ -72725,16 +72695,16 @@
       <c r="J8" s="19" t="s">
         <v>2040</v>
       </c>
-      <c r="K8" s="81" t="s">
+      <c r="K8" s="80" t="s">
         <v>2041</v>
       </c>
-      <c r="L8" s="81" t="s">
+      <c r="L8" s="80" t="s">
         <v>2042</v>
       </c>
-      <c r="M8" s="81" t="s">
+      <c r="M8" s="80" t="s">
         <v>2043</v>
       </c>
-      <c r="N8" s="81" t="s">
+      <c r="N8" s="80" t="s">
         <v>2044</v>
       </c>
     </row>
@@ -72748,16 +72718,16 @@
       <c r="C9" s="19" t="s">
         <v>1956</v>
       </c>
-      <c r="E9" s="81" t="s">
+      <c r="E9" s="80" t="s">
         <v>2046</v>
       </c>
-      <c r="F9" s="81" t="s">
+      <c r="F9" s="80" t="s">
         <v>2047</v>
       </c>
-      <c r="G9" s="81" t="s">
+      <c r="G9" s="80" t="s">
         <v>2048</v>
       </c>
-      <c r="H9" s="81" t="s">
+      <c r="H9" s="80" t="s">
         <v>2049</v>
       </c>
       <c r="I9" s="19" t="s">
@@ -72766,16 +72736,16 @@
       <c r="J9" s="19" t="s">
         <v>2051</v>
       </c>
-      <c r="K9" s="81" t="s">
+      <c r="K9" s="80" t="s">
         <v>2052</v>
       </c>
-      <c r="L9" s="81" t="s">
+      <c r="L9" s="80" t="s">
         <v>2053</v>
       </c>
-      <c r="M9" s="81" t="s">
+      <c r="M9" s="80" t="s">
         <v>2054</v>
       </c>
-      <c r="N9" s="81" t="s">
+      <c r="N9" s="80" t="s">
         <v>2055</v>
       </c>
     </row>
@@ -72786,16 +72756,16 @@
       <c r="B10" s="19" t="s">
         <v>2056</v>
       </c>
-      <c r="E10" s="81" t="s">
+      <c r="E10" s="80" t="s">
         <v>2057</v>
       </c>
-      <c r="F10" s="81" t="s">
+      <c r="F10" s="80" t="s">
         <v>2057</v>
       </c>
-      <c r="G10" s="81" t="s">
+      <c r="G10" s="80" t="s">
         <v>2058</v>
       </c>
-      <c r="H10" s="81" t="s">
+      <c r="H10" s="80" t="s">
         <v>2059</v>
       </c>
       <c r="I10" s="19" t="s">
@@ -72804,32 +72774,32 @@
       <c r="J10" s="19" t="s">
         <v>2061</v>
       </c>
-      <c r="K10" s="81" t="s">
+      <c r="K10" s="80" t="s">
         <v>2062</v>
       </c>
-      <c r="L10" s="81" t="s">
+      <c r="L10" s="80" t="s">
         <v>2062</v>
       </c>
-      <c r="M10" s="81" t="s">
+      <c r="M10" s="80" t="s">
         <v>2063</v>
       </c>
-      <c r="N10" s="81" t="s">
+      <c r="N10" s="80" t="s">
         <v>2064</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="79"/>
-      <c r="B11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="79"/>
-      <c r="M11" s="79"/>
-      <c r="N11" s="79"/>
+      <c r="A11" s="78"/>
+      <c r="B11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="78"/>
+      <c r="N11" s="78"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="19" t="s">
@@ -72841,16 +72811,16 @@
       <c r="C12" s="19" t="s">
         <v>1956</v>
       </c>
-      <c r="E12" s="81" t="s">
+      <c r="E12" s="80" t="s">
         <v>2067</v>
       </c>
-      <c r="F12" s="81" t="s">
+      <c r="F12" s="80" t="s">
         <v>2068</v>
       </c>
-      <c r="G12" s="81" t="s">
+      <c r="G12" s="80" t="s">
         <v>2069</v>
       </c>
-      <c r="H12" s="81" t="s">
+      <c r="H12" s="80" t="s">
         <v>2070</v>
       </c>
       <c r="I12" s="19" t="s">
@@ -72859,16 +72829,16 @@
       <c r="J12" s="19" t="s">
         <v>2072</v>
       </c>
-      <c r="K12" s="81" t="s">
+      <c r="K12" s="80" t="s">
         <v>2073</v>
       </c>
-      <c r="L12" s="81" t="s">
+      <c r="L12" s="80" t="s">
         <v>2074</v>
       </c>
-      <c r="M12" s="81" t="s">
+      <c r="M12" s="80" t="s">
         <v>2075</v>
       </c>
-      <c r="N12" s="81" t="s">
+      <c r="N12" s="80" t="s">
         <v>2076</v>
       </c>
     </row>
@@ -72882,16 +72852,16 @@
       <c r="C13" s="19" t="s">
         <v>1956</v>
       </c>
-      <c r="E13" s="81" t="s">
+      <c r="E13" s="80" t="s">
         <v>2079</v>
       </c>
-      <c r="F13" s="81" t="s">
+      <c r="F13" s="80" t="s">
         <v>2080</v>
       </c>
-      <c r="G13" s="81" t="s">
+      <c r="G13" s="80" t="s">
         <v>2081</v>
       </c>
-      <c r="H13" s="81" t="s">
+      <c r="H13" s="80" t="s">
         <v>2082</v>
       </c>
       <c r="I13" s="19" t="s">
@@ -72900,16 +72870,16 @@
       <c r="J13" s="19" t="s">
         <v>2084</v>
       </c>
-      <c r="K13" s="81" t="s">
+      <c r="K13" s="80" t="s">
         <v>2085</v>
       </c>
-      <c r="L13" s="81" t="s">
+      <c r="L13" s="80" t="s">
         <v>2086</v>
       </c>
-      <c r="M13" s="81" t="s">
+      <c r="M13" s="80" t="s">
         <v>2087</v>
       </c>
-      <c r="N13" s="81" t="s">
+      <c r="N13" s="80" t="s">
         <v>2088</v>
       </c>
     </row>
@@ -72923,16 +72893,16 @@
       <c r="C14" s="19" t="s">
         <v>1956</v>
       </c>
-      <c r="E14" s="81" t="s">
+      <c r="E14" s="80" t="s">
         <v>2091</v>
       </c>
-      <c r="F14" s="81" t="s">
+      <c r="F14" s="80" t="s">
         <v>2092</v>
       </c>
-      <c r="G14" s="81" t="s">
+      <c r="G14" s="80" t="s">
         <v>2093</v>
       </c>
-      <c r="H14" s="81" t="s">
+      <c r="H14" s="80" t="s">
         <v>2094</v>
       </c>
       <c r="I14" s="19" t="s">
@@ -72941,16 +72911,16 @@
       <c r="J14" s="19" t="s">
         <v>2096</v>
       </c>
-      <c r="K14" s="81" t="s">
+      <c r="K14" s="80" t="s">
         <v>2097</v>
       </c>
-      <c r="L14" s="81" t="s">
+      <c r="L14" s="80" t="s">
         <v>2098</v>
       </c>
-      <c r="M14" s="81" t="s">
+      <c r="M14" s="80" t="s">
         <v>2099</v>
       </c>
-      <c r="N14" s="81" t="s">
+      <c r="N14" s="80" t="s">
         <v>2100</v>
       </c>
     </row>
@@ -72964,16 +72934,16 @@
       <c r="C15" s="19" t="s">
         <v>1956</v>
       </c>
-      <c r="E15" s="81" t="s">
+      <c r="E15" s="80" t="s">
         <v>2103</v>
       </c>
-      <c r="F15" s="81" t="s">
+      <c r="F15" s="80" t="s">
         <v>2103</v>
       </c>
-      <c r="G15" s="81" t="s">
+      <c r="G15" s="80" t="s">
         <v>2104</v>
       </c>
-      <c r="H15" s="81" t="s">
+      <c r="H15" s="80" t="s">
         <v>2105</v>
       </c>
       <c r="I15" s="19" t="s">
@@ -72982,32 +72952,32 @@
       <c r="J15" s="19" t="s">
         <v>2107</v>
       </c>
-      <c r="K15" s="81" t="s">
+      <c r="K15" s="80" t="s">
         <v>2108</v>
       </c>
-      <c r="L15" s="81" t="s">
+      <c r="L15" s="80" t="s">
         <v>2108</v>
       </c>
-      <c r="M15" s="81" t="s">
+      <c r="M15" s="80" t="s">
         <v>2109</v>
       </c>
-      <c r="N15" s="81" t="s">
+      <c r="N15" s="80" t="s">
         <v>2110</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="79"/>
-      <c r="B16" s="79"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="79"/>
-      <c r="I16" s="79"/>
-      <c r="J16" s="79"/>
-      <c r="K16" s="79"/>
-      <c r="L16" s="79"/>
-      <c r="M16" s="79"/>
-      <c r="N16" s="79"/>
+      <c r="A16" s="78"/>
+      <c r="B16" s="78"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="78"/>
+      <c r="J16" s="78"/>
+      <c r="K16" s="78"/>
+      <c r="L16" s="78"/>
+      <c r="M16" s="78"/>
+      <c r="N16" s="78"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="19" t="s">
@@ -73019,16 +72989,16 @@
       <c r="C17" s="19" t="s">
         <v>1956</v>
       </c>
-      <c r="E17" s="81" t="s">
+      <c r="E17" s="80" t="s">
         <v>2112</v>
       </c>
-      <c r="F17" s="81" t="s">
+      <c r="F17" s="80" t="s">
         <v>2113</v>
       </c>
-      <c r="G17" s="81" t="s">
+      <c r="G17" s="80" t="s">
         <v>2114</v>
       </c>
-      <c r="H17" s="81" t="s">
+      <c r="H17" s="80" t="s">
         <v>2115</v>
       </c>
       <c r="I17" s="19" t="s">
@@ -73037,16 +73007,16 @@
       <c r="J17" s="19" t="s">
         <v>2117</v>
       </c>
-      <c r="K17" s="81" t="s">
+      <c r="K17" s="80" t="s">
         <v>2118</v>
       </c>
-      <c r="L17" s="81" t="s">
+      <c r="L17" s="80" t="s">
         <v>2119</v>
       </c>
-      <c r="M17" s="81" t="s">
+      <c r="M17" s="80" t="s">
         <v>2120</v>
       </c>
-      <c r="N17" s="81" t="s">
+      <c r="N17" s="80" t="s">
         <v>2121</v>
       </c>
     </row>
@@ -73060,16 +73030,16 @@
       <c r="C18" s="19" t="s">
         <v>1956</v>
       </c>
-      <c r="E18" s="81" t="s">
+      <c r="E18" s="80" t="s">
         <v>2123</v>
       </c>
-      <c r="F18" s="81" t="s">
+      <c r="F18" s="80" t="s">
         <v>2124</v>
       </c>
-      <c r="G18" s="81" t="s">
+      <c r="G18" s="80" t="s">
         <v>2125</v>
       </c>
-      <c r="H18" s="81" t="s">
+      <c r="H18" s="80" t="s">
         <v>2126</v>
       </c>
       <c r="I18" s="19" t="s">
@@ -73078,16 +73048,16 @@
       <c r="J18" s="19" t="s">
         <v>2128</v>
       </c>
-      <c r="K18" s="81" t="s">
+      <c r="K18" s="80" t="s">
         <v>2129</v>
       </c>
-      <c r="L18" s="81" t="s">
+      <c r="L18" s="80" t="s">
         <v>2130</v>
       </c>
-      <c r="M18" s="81" t="s">
+      <c r="M18" s="80" t="s">
         <v>2131</v>
       </c>
-      <c r="N18" s="81" t="s">
+      <c r="N18" s="80" t="s">
         <v>2132</v>
       </c>
     </row>
@@ -73101,16 +73071,16 @@
       <c r="C19" s="19" t="s">
         <v>1956</v>
       </c>
-      <c r="E19" s="81" t="s">
+      <c r="E19" s="80" t="s">
         <v>2133</v>
       </c>
-      <c r="F19" s="81" t="s">
+      <c r="F19" s="80" t="s">
         <v>2134</v>
       </c>
-      <c r="G19" s="81" t="s">
+      <c r="G19" s="80" t="s">
         <v>2135</v>
       </c>
-      <c r="H19" s="81" t="s">
+      <c r="H19" s="80" t="s">
         <v>2136</v>
       </c>
       <c r="I19" s="19" t="s">
@@ -73119,32 +73089,32 @@
       <c r="J19" s="19" t="s">
         <v>2138</v>
       </c>
-      <c r="K19" s="81" t="s">
+      <c r="K19" s="80" t="s">
         <v>2139</v>
       </c>
-      <c r="L19" s="81" t="s">
+      <c r="L19" s="80" t="s">
         <v>2140</v>
       </c>
-      <c r="M19" s="81" t="s">
+      <c r="M19" s="80" t="s">
         <v>2141</v>
       </c>
-      <c r="N19" s="81" t="s">
+      <c r="N19" s="80" t="s">
         <v>2142</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="79"/>
-      <c r="B20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="79"/>
-      <c r="J20" s="79"/>
-      <c r="K20" s="79"/>
-      <c r="L20" s="79"/>
-      <c r="M20" s="79"/>
-      <c r="N20" s="79"/>
+      <c r="A20" s="78"/>
+      <c r="B20" s="78"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="78"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="78"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="78"/>
+      <c r="N20" s="78"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="19" t="s">
@@ -73156,16 +73126,16 @@
       <c r="C21" s="19" t="s">
         <v>1956</v>
       </c>
-      <c r="E21" s="81" t="s">
+      <c r="E21" s="80" t="s">
         <v>2145</v>
       </c>
-      <c r="F21" s="81" t="s">
+      <c r="F21" s="80" t="s">
         <v>2146</v>
       </c>
-      <c r="G21" s="81" t="s">
+      <c r="G21" s="80" t="s">
         <v>2147</v>
       </c>
-      <c r="H21" s="81" t="s">
+      <c r="H21" s="80" t="s">
         <v>2148</v>
       </c>
       <c r="I21" s="19" t="s">
@@ -73174,16 +73144,16 @@
       <c r="J21" s="19" t="s">
         <v>2150</v>
       </c>
-      <c r="K21" s="81" t="s">
+      <c r="K21" s="80" t="s">
         <v>2151</v>
       </c>
-      <c r="L21" s="81" t="s">
+      <c r="L21" s="80" t="s">
         <v>2152</v>
       </c>
-      <c r="M21" s="81" t="s">
+      <c r="M21" s="80" t="s">
         <v>2153</v>
       </c>
-      <c r="N21" s="81" t="s">
+      <c r="N21" s="80" t="s">
         <v>2154</v>
       </c>
     </row>
@@ -73197,16 +73167,16 @@
       <c r="C22" s="19" t="s">
         <v>1956</v>
       </c>
-      <c r="E22" s="81" t="s">
+      <c r="E22" s="80" t="s">
         <v>2157</v>
       </c>
-      <c r="F22" s="81" t="s">
+      <c r="F22" s="80" t="s">
         <v>2158</v>
       </c>
-      <c r="G22" s="81" t="s">
+      <c r="G22" s="80" t="s">
         <v>2159</v>
       </c>
-      <c r="H22" s="81" t="s">
+      <c r="H22" s="80" t="s">
         <v>2160</v>
       </c>
       <c r="I22" s="19" t="s">
@@ -73215,32 +73185,32 @@
       <c r="J22" s="19" t="s">
         <v>2162</v>
       </c>
-      <c r="K22" s="81" t="s">
+      <c r="K22" s="80" t="s">
         <v>2163</v>
       </c>
-      <c r="L22" s="81" t="s">
+      <c r="L22" s="80" t="s">
         <v>2164</v>
       </c>
-      <c r="M22" s="81" t="s">
+      <c r="M22" s="80" t="s">
         <v>2165</v>
       </c>
-      <c r="N22" s="81" t="s">
+      <c r="N22" s="80" t="s">
         <v>2166</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="79"/>
-      <c r="B23" s="79"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="79"/>
-      <c r="H23" s="79"/>
-      <c r="I23" s="79"/>
-      <c r="J23" s="79"/>
-      <c r="K23" s="79"/>
-      <c r="L23" s="79"/>
-      <c r="M23" s="79"/>
-      <c r="N23" s="79"/>
+      <c r="A23" s="78"/>
+      <c r="B23" s="78"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="78"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="78"/>
+      <c r="I23" s="78"/>
+      <c r="J23" s="78"/>
+      <c r="K23" s="78"/>
+      <c r="L23" s="78"/>
+      <c r="M23" s="78"/>
+      <c r="N23" s="78"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="19" t="s">
@@ -73255,16 +73225,16 @@
       <c r="D24" s="19" t="s">
         <v>1957</v>
       </c>
-      <c r="E24" s="81" t="s">
+      <c r="E24" s="80" t="s">
         <v>2169</v>
       </c>
-      <c r="F24" s="81" t="s">
+      <c r="F24" s="80" t="s">
         <v>2170</v>
       </c>
-      <c r="G24" s="81" t="s">
+      <c r="G24" s="80" t="s">
         <v>2171</v>
       </c>
-      <c r="H24" s="81" t="s">
+      <c r="H24" s="80" t="s">
         <v>2172</v>
       </c>
       <c r="I24" s="19" t="s">
@@ -73273,16 +73243,16 @@
       <c r="J24" s="19" t="s">
         <v>2174</v>
       </c>
-      <c r="K24" s="81" t="s">
+      <c r="K24" s="80" t="s">
         <v>2175</v>
       </c>
-      <c r="L24" s="81" t="s">
+      <c r="L24" s="80" t="s">
         <v>2176</v>
       </c>
-      <c r="M24" s="81" t="s">
+      <c r="M24" s="80" t="s">
         <v>2177</v>
       </c>
-      <c r="N24" s="81" t="s">
+      <c r="N24" s="80" t="s">
         <v>2178</v>
       </c>
     </row>
@@ -73299,16 +73269,16 @@
       <c r="D25" s="19" t="s">
         <v>1957</v>
       </c>
-      <c r="E25" s="81" t="s">
+      <c r="E25" s="80" t="s">
         <v>2181</v>
       </c>
-      <c r="F25" s="81" t="s">
+      <c r="F25" s="80" t="s">
         <v>2182</v>
       </c>
-      <c r="G25" s="81" t="s">
+      <c r="G25" s="80" t="s">
         <v>2183</v>
       </c>
-      <c r="H25" s="81" t="s">
+      <c r="H25" s="80" t="s">
         <v>2184</v>
       </c>
       <c r="I25" s="19" t="s">
@@ -73317,16 +73287,16 @@
       <c r="J25" s="19" t="s">
         <v>2186</v>
       </c>
-      <c r="K25" s="81" t="s">
+      <c r="K25" s="80" t="s">
         <v>2187</v>
       </c>
-      <c r="L25" s="81" t="s">
+      <c r="L25" s="80" t="s">
         <v>2188</v>
       </c>
-      <c r="M25" s="81" t="s">
+      <c r="M25" s="80" t="s">
         <v>2189</v>
       </c>
-      <c r="N25" s="81" t="s">
+      <c r="N25" s="80" t="s">
         <v>2190</v>
       </c>
     </row>
@@ -73343,16 +73313,16 @@
       <c r="D26" s="19" t="s">
         <v>1957</v>
       </c>
-      <c r="E26" s="81" t="s">
+      <c r="E26" s="80" t="s">
         <v>2193</v>
       </c>
-      <c r="F26" s="81" t="s">
+      <c r="F26" s="80" t="s">
         <v>2194</v>
       </c>
-      <c r="G26" s="81" t="s">
+      <c r="G26" s="80" t="s">
         <v>2195</v>
       </c>
-      <c r="H26" s="81" t="s">
+      <c r="H26" s="80" t="s">
         <v>2196</v>
       </c>
       <c r="I26" s="19" t="s">
@@ -73361,16 +73331,16 @@
       <c r="J26" s="19" t="s">
         <v>2198</v>
       </c>
-      <c r="K26" s="81" t="s">
+      <c r="K26" s="80" t="s">
         <v>2199</v>
       </c>
-      <c r="L26" s="81" t="s">
+      <c r="L26" s="80" t="s">
         <v>2200</v>
       </c>
-      <c r="M26" s="81" t="s">
+      <c r="M26" s="80" t="s">
         <v>2201</v>
       </c>
-      <c r="N26" s="81" t="s">
+      <c r="N26" s="80" t="s">
         <v>2202</v>
       </c>
     </row>
@@ -73387,16 +73357,16 @@
       <c r="D27" s="19" t="s">
         <v>1957</v>
       </c>
-      <c r="E27" s="81" t="s">
+      <c r="E27" s="80" t="s">
         <v>2205</v>
       </c>
-      <c r="F27" s="81" t="s">
+      <c r="F27" s="80" t="s">
         <v>2206</v>
       </c>
-      <c r="G27" s="81" t="s">
+      <c r="G27" s="80" t="s">
         <v>2207</v>
       </c>
-      <c r="H27" s="81" t="s">
+      <c r="H27" s="80" t="s">
         <v>2208</v>
       </c>
       <c r="I27" s="19" t="s">
@@ -73405,16 +73375,16 @@
       <c r="J27" s="19" t="s">
         <v>2210</v>
       </c>
-      <c r="K27" s="81" t="s">
+      <c r="K27" s="80" t="s">
         <v>2211</v>
       </c>
-      <c r="L27" s="81" t="s">
+      <c r="L27" s="80" t="s">
         <v>2042</v>
       </c>
-      <c r="M27" s="81" t="s">
+      <c r="M27" s="80" t="s">
         <v>2212</v>
       </c>
-      <c r="N27" s="81" t="s">
+      <c r="N27" s="80" t="s">
         <v>2213</v>
       </c>
     </row>
@@ -73431,16 +73401,16 @@
       <c r="D28" s="19" t="s">
         <v>1957</v>
       </c>
-      <c r="E28" s="81" t="s">
+      <c r="E28" s="80" t="s">
         <v>2216</v>
       </c>
-      <c r="F28" s="81" t="s">
+      <c r="F28" s="80" t="s">
         <v>2217</v>
       </c>
-      <c r="G28" s="81" t="s">
+      <c r="G28" s="80" t="s">
         <v>2218</v>
       </c>
-      <c r="H28" s="81" t="s">
+      <c r="H28" s="80" t="s">
         <v>2219</v>
       </c>
       <c r="I28" s="19" t="s">
@@ -73449,16 +73419,16 @@
       <c r="J28" s="19" t="s">
         <v>2221</v>
       </c>
-      <c r="K28" s="81" t="s">
+      <c r="K28" s="80" t="s">
         <v>2222</v>
       </c>
-      <c r="L28" s="81" t="s">
+      <c r="L28" s="80" t="s">
         <v>2020</v>
       </c>
-      <c r="M28" s="81" t="s">
+      <c r="M28" s="80" t="s">
         <v>2223</v>
       </c>
-      <c r="N28" s="81" t="s">
+      <c r="N28" s="80" t="s">
         <v>2224</v>
       </c>
     </row>
@@ -73475,16 +73445,16 @@
       <c r="D29" s="19" t="s">
         <v>1957</v>
       </c>
-      <c r="E29" s="81" t="s">
+      <c r="E29" s="80" t="s">
         <v>2227</v>
       </c>
-      <c r="F29" s="81" t="s">
+      <c r="F29" s="80" t="s">
         <v>2228</v>
       </c>
-      <c r="G29" s="81" t="s">
+      <c r="G29" s="80" t="s">
         <v>2229</v>
       </c>
-      <c r="H29" s="81" t="s">
+      <c r="H29" s="80" t="s">
         <v>2230</v>
       </c>
       <c r="I29" s="19" t="s">
@@ -73493,16 +73463,16 @@
       <c r="J29" s="19" t="s">
         <v>2232</v>
       </c>
-      <c r="K29" s="81" t="s">
+      <c r="K29" s="80" t="s">
         <v>2233</v>
       </c>
-      <c r="L29" s="81" t="s">
+      <c r="L29" s="80" t="s">
         <v>2234</v>
       </c>
-      <c r="M29" s="81" t="s">
+      <c r="M29" s="80" t="s">
         <v>2235</v>
       </c>
-      <c r="N29" s="81" t="s">
+      <c r="N29" s="80" t="s">
         <v>2236</v>
       </c>
     </row>
@@ -73519,16 +73489,16 @@
       <c r="D30" s="19" t="s">
         <v>1957</v>
       </c>
-      <c r="E30" s="81" t="s">
+      <c r="E30" s="80" t="s">
         <v>2239</v>
       </c>
-      <c r="F30" s="81" t="s">
+      <c r="F30" s="80" t="s">
         <v>2240</v>
       </c>
-      <c r="G30" s="81" t="s">
+      <c r="G30" s="80" t="s">
         <v>2241</v>
       </c>
-      <c r="H30" s="81" t="s">
+      <c r="H30" s="80" t="s">
         <v>2242</v>
       </c>
       <c r="I30" s="19" t="s">
@@ -73537,16 +73507,16 @@
       <c r="J30" s="19" t="s">
         <v>2244</v>
       </c>
-      <c r="K30" s="81" t="s">
+      <c r="K30" s="80" t="s">
         <v>2245</v>
       </c>
-      <c r="L30" s="81" t="s">
+      <c r="L30" s="80" t="s">
         <v>2246</v>
       </c>
-      <c r="M30" s="81" t="s">
+      <c r="M30" s="80" t="s">
         <v>2247</v>
       </c>
-      <c r="N30" s="81" t="s">
+      <c r="N30" s="80" t="s">
         <v>2248</v>
       </c>
     </row>
@@ -73563,16 +73533,16 @@
       <c r="D31" s="19" t="s">
         <v>1957</v>
       </c>
-      <c r="E31" s="81" t="s">
+      <c r="E31" s="80" t="s">
         <v>2251</v>
       </c>
-      <c r="F31" s="81" t="s">
+      <c r="F31" s="80" t="s">
         <v>2252</v>
       </c>
-      <c r="G31" s="81" t="s">
+      <c r="G31" s="80" t="s">
         <v>2253</v>
       </c>
-      <c r="H31" s="81" t="s">
+      <c r="H31" s="80" t="s">
         <v>2254</v>
       </c>
       <c r="I31" s="19" t="s">
@@ -73581,32 +73551,32 @@
       <c r="J31" s="19" t="s">
         <v>2256</v>
       </c>
-      <c r="K31" s="81" t="s">
+      <c r="K31" s="80" t="s">
         <v>2257</v>
       </c>
-      <c r="L31" s="81" t="s">
+      <c r="L31" s="80" t="s">
         <v>2258</v>
       </c>
-      <c r="M31" s="81" t="s">
+      <c r="M31" s="80" t="s">
         <v>2259</v>
       </c>
-      <c r="N31" s="81" t="s">
+      <c r="N31" s="80" t="s">
         <v>2260</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="79"/>
-      <c r="B32" s="79"/>
-      <c r="E32" s="79"/>
-      <c r="F32" s="79"/>
-      <c r="G32" s="79"/>
-      <c r="H32" s="79"/>
-      <c r="I32" s="79"/>
-      <c r="J32" s="79"/>
-      <c r="K32" s="79"/>
-      <c r="L32" s="79"/>
-      <c r="M32" s="79"/>
-      <c r="N32" s="79"/>
+      <c r="A32" s="78"/>
+      <c r="B32" s="78"/>
+      <c r="E32" s="78"/>
+      <c r="F32" s="78"/>
+      <c r="G32" s="78"/>
+      <c r="H32" s="78"/>
+      <c r="I32" s="78"/>
+      <c r="J32" s="78"/>
+      <c r="K32" s="78"/>
+      <c r="L32" s="78"/>
+      <c r="M32" s="78"/>
+      <c r="N32" s="78"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="19" t="s">
@@ -73618,16 +73588,16 @@
       <c r="C33" s="19" t="s">
         <v>1956</v>
       </c>
-      <c r="E33" s="81" t="s">
+      <c r="E33" s="80" t="s">
         <v>2263</v>
       </c>
-      <c r="F33" s="81" t="s">
+      <c r="F33" s="80" t="s">
         <v>2264</v>
       </c>
-      <c r="G33" s="81" t="s">
+      <c r="G33" s="80" t="s">
         <v>2265</v>
       </c>
-      <c r="H33" s="81" t="s">
+      <c r="H33" s="80" t="s">
         <v>2266</v>
       </c>
       <c r="I33" s="19" t="n">
@@ -73636,16 +73606,16 @@
       <c r="J33" s="19" t="s">
         <v>2267</v>
       </c>
-      <c r="K33" s="81" t="s">
+      <c r="K33" s="80" t="s">
         <v>2268</v>
       </c>
-      <c r="L33" s="81" t="s">
+      <c r="L33" s="80" t="s">
         <v>2269</v>
       </c>
-      <c r="M33" s="81" t="s">
+      <c r="M33" s="80" t="s">
         <v>2270</v>
       </c>
-      <c r="N33" s="81" t="s">
+      <c r="N33" s="80" t="s">
         <v>2271</v>
       </c>
     </row>
@@ -73659,16 +73629,16 @@
       <c r="C34" s="19" t="s">
         <v>1956</v>
       </c>
-      <c r="E34" s="81" t="s">
+      <c r="E34" s="80" t="s">
         <v>2274</v>
       </c>
-      <c r="F34" s="81" t="s">
+      <c r="F34" s="80" t="s">
         <v>2275</v>
       </c>
-      <c r="G34" s="81" t="s">
+      <c r="G34" s="80" t="s">
         <v>2276</v>
       </c>
-      <c r="H34" s="81" t="s">
+      <c r="H34" s="80" t="s">
         <v>2277</v>
       </c>
       <c r="I34" s="19" t="n">
@@ -73677,16 +73647,16 @@
       <c r="J34" s="19" t="s">
         <v>2278</v>
       </c>
-      <c r="K34" s="81" t="s">
+      <c r="K34" s="80" t="s">
         <v>2279</v>
       </c>
-      <c r="L34" s="81" t="s">
+      <c r="L34" s="80" t="s">
         <v>2280</v>
       </c>
-      <c r="M34" s="81" t="s">
+      <c r="M34" s="80" t="s">
         <v>2281</v>
       </c>
-      <c r="N34" s="81" t="s">
+      <c r="N34" s="80" t="s">
         <v>2282</v>
       </c>
     </row>
@@ -73700,16 +73670,16 @@
       <c r="C35" s="19" t="s">
         <v>1956</v>
       </c>
-      <c r="E35" s="81" t="s">
+      <c r="E35" s="80" t="s">
         <v>2285</v>
       </c>
-      <c r="F35" s="81" t="s">
+      <c r="F35" s="80" t="s">
         <v>2286</v>
       </c>
-      <c r="G35" s="81" t="s">
+      <c r="G35" s="80" t="s">
         <v>2287</v>
       </c>
-      <c r="H35" s="81" t="s">
+      <c r="H35" s="80" t="s">
         <v>2288</v>
       </c>
       <c r="I35" s="19" t="n">
@@ -73718,32 +73688,32 @@
       <c r="J35" s="19" t="s">
         <v>2289</v>
       </c>
-      <c r="K35" s="81" t="s">
+      <c r="K35" s="80" t="s">
         <v>2290</v>
       </c>
-      <c r="L35" s="81" t="s">
+      <c r="L35" s="80" t="s">
         <v>2291</v>
       </c>
-      <c r="M35" s="81" t="s">
+      <c r="M35" s="80" t="s">
         <v>2292</v>
       </c>
-      <c r="N35" s="81" t="s">
+      <c r="N35" s="80" t="s">
         <v>2293</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="79"/>
-      <c r="B36" s="79"/>
-      <c r="E36" s="79"/>
-      <c r="F36" s="79"/>
-      <c r="G36" s="79"/>
-      <c r="H36" s="79"/>
-      <c r="I36" s="79"/>
-      <c r="J36" s="79"/>
-      <c r="K36" s="79"/>
-      <c r="L36" s="79"/>
-      <c r="M36" s="79"/>
-      <c r="N36" s="79"/>
+      <c r="A36" s="78"/>
+      <c r="B36" s="78"/>
+      <c r="E36" s="78"/>
+      <c r="F36" s="78"/>
+      <c r="G36" s="78"/>
+      <c r="H36" s="78"/>
+      <c r="I36" s="78"/>
+      <c r="J36" s="78"/>
+      <c r="K36" s="78"/>
+      <c r="L36" s="78"/>
+      <c r="M36" s="78"/>
+      <c r="N36" s="78"/>
     </row>
     <row r="37" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="19" t="s">
@@ -73755,12 +73725,12 @@
       <c r="C37" s="19" t="s">
         <v>1956</v>
       </c>
-      <c r="E37" s="79"/>
-      <c r="F37" s="79"/>
-      <c r="G37" s="81" t="s">
+      <c r="E37" s="78"/>
+      <c r="F37" s="78"/>
+      <c r="G37" s="80" t="s">
         <v>2295</v>
       </c>
-      <c r="H37" s="81" t="s">
+      <c r="H37" s="80" t="s">
         <v>2295</v>
       </c>
       <c r="I37" s="19" t="s">
@@ -73769,12 +73739,12 @@
       <c r="J37" s="19" t="s">
         <v>2297</v>
       </c>
-      <c r="K37" s="79"/>
-      <c r="L37" s="79"/>
-      <c r="M37" s="81" t="s">
+      <c r="K37" s="78"/>
+      <c r="L37" s="78"/>
+      <c r="M37" s="80" t="s">
         <v>2298</v>
       </c>
-      <c r="N37" s="81" t="s">
+      <c r="N37" s="80" t="s">
         <v>2299</v>
       </c>
     </row>
@@ -73788,16 +73758,16 @@
       <c r="C38" s="19" t="s">
         <v>1956</v>
       </c>
-      <c r="E38" s="81" t="s">
+      <c r="E38" s="80" t="s">
         <v>2301</v>
       </c>
-      <c r="F38" s="81" t="s">
+      <c r="F38" s="80" t="s">
         <v>2301</v>
       </c>
-      <c r="G38" s="81" t="s">
+      <c r="G38" s="80" t="s">
         <v>2302</v>
       </c>
-      <c r="H38" s="81" t="s">
+      <c r="H38" s="80" t="s">
         <v>2303</v>
       </c>
       <c r="I38" s="19" t="s">
@@ -73806,16 +73776,16 @@
       <c r="J38" s="19" t="s">
         <v>2305</v>
       </c>
-      <c r="K38" s="81" t="s">
+      <c r="K38" s="80" t="s">
         <v>2306</v>
       </c>
-      <c r="L38" s="81" t="s">
+      <c r="L38" s="80" t="s">
         <v>2306</v>
       </c>
-      <c r="M38" s="81" t="s">
+      <c r="M38" s="80" t="s">
         <v>2307</v>
       </c>
-      <c r="N38" s="81" t="s">
+      <c r="N38" s="80" t="s">
         <v>2308</v>
       </c>
     </row>
@@ -73829,16 +73799,16 @@
       <c r="C39" s="19" t="s">
         <v>1956</v>
       </c>
-      <c r="E39" s="81" t="s">
+      <c r="E39" s="80" t="s">
         <v>2311</v>
       </c>
-      <c r="F39" s="81" t="s">
+      <c r="F39" s="80" t="s">
         <v>2311</v>
       </c>
-      <c r="G39" s="81" t="s">
+      <c r="G39" s="80" t="s">
         <v>2312</v>
       </c>
-      <c r="H39" s="81" t="s">
+      <c r="H39" s="80" t="s">
         <v>2313</v>
       </c>
       <c r="I39" s="19" t="s">
@@ -73847,16 +73817,16 @@
       <c r="J39" s="19" t="s">
         <v>2315</v>
       </c>
-      <c r="K39" s="81" t="s">
+      <c r="K39" s="80" t="s">
         <v>2316</v>
       </c>
-      <c r="L39" s="81" t="s">
+      <c r="L39" s="80" t="s">
         <v>2316</v>
       </c>
-      <c r="M39" s="81" t="s">
+      <c r="M39" s="80" t="s">
         <v>2317</v>
       </c>
-      <c r="N39" s="81" t="s">
+      <c r="N39" s="80" t="s">
         <v>2318</v>
       </c>
     </row>
@@ -73864,16 +73834,16 @@
       <c r="C40" s="19" t="s">
         <v>1956</v>
       </c>
-      <c r="E40" s="79"/>
-      <c r="F40" s="79"/>
-      <c r="G40" s="79"/>
-      <c r="H40" s="79"/>
-      <c r="I40" s="79"/>
-      <c r="J40" s="79"/>
-      <c r="K40" s="79"/>
-      <c r="L40" s="79"/>
-      <c r="M40" s="79"/>
-      <c r="N40" s="79"/>
+      <c r="E40" s="78"/>
+      <c r="F40" s="78"/>
+      <c r="G40" s="78"/>
+      <c r="H40" s="78"/>
+      <c r="I40" s="78"/>
+      <c r="J40" s="78"/>
+      <c r="K40" s="78"/>
+      <c r="L40" s="78"/>
+      <c r="M40" s="78"/>
+      <c r="N40" s="78"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="19" t="s">
@@ -73885,16 +73855,16 @@
       <c r="C41" s="19" t="s">
         <v>1956</v>
       </c>
-      <c r="E41" s="81" t="s">
+      <c r="E41" s="80" t="s">
         <v>2321</v>
       </c>
-      <c r="F41" s="81" t="s">
+      <c r="F41" s="80" t="s">
         <v>2321</v>
       </c>
-      <c r="G41" s="81" t="s">
+      <c r="G41" s="80" t="s">
         <v>2322</v>
       </c>
-      <c r="H41" s="81" t="s">
+      <c r="H41" s="80" t="s">
         <v>2323</v>
       </c>
       <c r="I41" s="19" t="s">
@@ -73903,14 +73873,14 @@
       <c r="J41" s="19" t="s">
         <v>2325</v>
       </c>
-      <c r="K41" s="81" t="s">
+      <c r="K41" s="80" t="s">
         <v>2326</v>
       </c>
-      <c r="L41" s="79"/>
-      <c r="M41" s="81" t="s">
+      <c r="L41" s="78"/>
+      <c r="M41" s="80" t="s">
         <v>2327</v>
       </c>
-      <c r="N41" s="81" t="s">
+      <c r="N41" s="80" t="s">
         <v>2328</v>
       </c>
     </row>
@@ -73924,16 +73894,16 @@
       <c r="C42" s="19" t="s">
         <v>1956</v>
       </c>
-      <c r="E42" s="81" t="s">
+      <c r="E42" s="80" t="s">
         <v>2331</v>
       </c>
-      <c r="F42" s="81" t="s">
+      <c r="F42" s="80" t="s">
         <v>2331</v>
       </c>
-      <c r="G42" s="81" t="s">
+      <c r="G42" s="80" t="s">
         <v>2332</v>
       </c>
-      <c r="H42" s="81" t="s">
+      <c r="H42" s="80" t="s">
         <v>2333</v>
       </c>
       <c r="I42" s="19" t="s">
@@ -73942,16 +73912,16 @@
       <c r="J42" s="19" t="s">
         <v>2335</v>
       </c>
-      <c r="K42" s="81" t="s">
+      <c r="K42" s="80" t="s">
         <v>2336</v>
       </c>
-      <c r="L42" s="81" t="s">
+      <c r="L42" s="80" t="s">
         <v>2337</v>
       </c>
-      <c r="M42" s="81" t="s">
+      <c r="M42" s="80" t="s">
         <v>2338</v>
       </c>
-      <c r="N42" s="81" t="s">
+      <c r="N42" s="80" t="s">
         <v>2339</v>
       </c>
     </row>
@@ -73965,16 +73935,16 @@
       <c r="C43" s="19" t="s">
         <v>1956</v>
       </c>
-      <c r="E43" s="81" t="s">
+      <c r="E43" s="80" t="s">
         <v>2342</v>
       </c>
-      <c r="F43" s="81" t="s">
+      <c r="F43" s="80" t="s">
         <v>2343</v>
       </c>
-      <c r="G43" s="81" t="s">
+      <c r="G43" s="80" t="s">
         <v>2344</v>
       </c>
-      <c r="H43" s="81" t="s">
+      <c r="H43" s="80" t="s">
         <v>2345</v>
       </c>
       <c r="I43" s="19" t="s">
@@ -73983,12 +73953,12 @@
       <c r="J43" s="19" t="s">
         <v>2347</v>
       </c>
-      <c r="K43" s="79"/>
-      <c r="L43" s="79"/>
-      <c r="M43" s="81" t="s">
+      <c r="K43" s="78"/>
+      <c r="L43" s="78"/>
+      <c r="M43" s="80" t="s">
         <v>2348</v>
       </c>
-      <c r="N43" s="81" t="s">
+      <c r="N43" s="80" t="s">
         <v>2349</v>
       </c>
     </row>
@@ -74002,14 +73972,14 @@
       <c r="C44" s="19" t="s">
         <v>1956</v>
       </c>
-      <c r="E44" s="81" t="s">
+      <c r="E44" s="80" t="s">
         <v>2351</v>
       </c>
-      <c r="F44" s="79"/>
-      <c r="G44" s="81" t="s">
+      <c r="F44" s="78"/>
+      <c r="G44" s="80" t="s">
         <v>2352</v>
       </c>
-      <c r="H44" s="81" t="s">
+      <c r="H44" s="80" t="s">
         <v>2352</v>
       </c>
       <c r="I44" s="19" t="s">
@@ -74018,16 +73988,16 @@
       <c r="J44" s="19" t="s">
         <v>2354</v>
       </c>
-      <c r="K44" s="81" t="s">
+      <c r="K44" s="80" t="s">
         <v>2355</v>
       </c>
-      <c r="L44" s="81" t="s">
+      <c r="L44" s="80" t="s">
         <v>2355</v>
       </c>
-      <c r="M44" s="81" t="s">
+      <c r="M44" s="80" t="s">
         <v>2356</v>
       </c>
-      <c r="N44" s="81" t="s">
+      <c r="N44" s="80" t="s">
         <v>2357</v>
       </c>
     </row>
@@ -74041,16 +74011,16 @@
       <c r="C45" s="19" t="s">
         <v>1956</v>
       </c>
-      <c r="E45" s="81" t="s">
+      <c r="E45" s="80" t="s">
         <v>2360</v>
       </c>
-      <c r="F45" s="81" t="s">
+      <c r="F45" s="80" t="s">
         <v>2361</v>
       </c>
-      <c r="G45" s="81" t="s">
+      <c r="G45" s="80" t="s">
         <v>2362</v>
       </c>
-      <c r="H45" s="81" t="s">
+      <c r="H45" s="80" t="s">
         <v>2363</v>
       </c>
       <c r="I45" s="19" t="s">
@@ -74059,16 +74029,16 @@
       <c r="J45" s="19" t="s">
         <v>2365</v>
       </c>
-      <c r="K45" s="81" t="s">
+      <c r="K45" s="80" t="s">
         <v>2366</v>
       </c>
-      <c r="L45" s="81" t="s">
+      <c r="L45" s="80" t="s">
         <v>2366</v>
       </c>
-      <c r="M45" s="81" t="s">
+      <c r="M45" s="80" t="s">
         <v>2367</v>
       </c>
-      <c r="N45" s="81" t="s">
+      <c r="N45" s="80" t="s">
         <v>2368</v>
       </c>
     </row>
@@ -74082,16 +74052,16 @@
       <c r="C46" s="19" t="s">
         <v>1956</v>
       </c>
-      <c r="E46" s="81" t="s">
+      <c r="E46" s="80" t="s">
         <v>2370</v>
       </c>
-      <c r="F46" s="81" t="s">
+      <c r="F46" s="80" t="s">
         <v>2370</v>
       </c>
-      <c r="G46" s="81" t="s">
+      <c r="G46" s="80" t="s">
         <v>2371</v>
       </c>
-      <c r="H46" s="81" t="s">
+      <c r="H46" s="80" t="s">
         <v>2372</v>
       </c>
       <c r="I46" s="19" t="s">
@@ -74100,16 +74070,16 @@
       <c r="J46" s="19" t="s">
         <v>2374</v>
       </c>
-      <c r="K46" s="81" t="s">
+      <c r="K46" s="80" t="s">
         <v>2375</v>
       </c>
-      <c r="L46" s="81" t="s">
+      <c r="L46" s="80" t="s">
         <v>2375</v>
       </c>
-      <c r="M46" s="81" t="s">
+      <c r="M46" s="80" t="s">
         <v>2376</v>
       </c>
-      <c r="N46" s="81" t="s">
+      <c r="N46" s="80" t="s">
         <v>2377</v>
       </c>
     </row>
@@ -74123,16 +74093,16 @@
       <c r="C47" s="19" t="s">
         <v>1956</v>
       </c>
-      <c r="E47" s="81" t="s">
+      <c r="E47" s="80" t="s">
         <v>2379</v>
       </c>
-      <c r="F47" s="81" t="s">
+      <c r="F47" s="80" t="s">
         <v>2380</v>
       </c>
-      <c r="G47" s="81" t="s">
+      <c r="G47" s="80" t="s">
         <v>2058</v>
       </c>
-      <c r="H47" s="81" t="s">
+      <c r="H47" s="80" t="s">
         <v>2381</v>
       </c>
       <c r="I47" s="19" t="s">
@@ -74141,16 +74111,16 @@
       <c r="J47" s="19" t="s">
         <v>2383</v>
       </c>
-      <c r="K47" s="81" t="s">
+      <c r="K47" s="80" t="s">
         <v>2384</v>
       </c>
-      <c r="L47" s="81" t="s">
+      <c r="L47" s="80" t="s">
         <v>2384</v>
       </c>
-      <c r="M47" s="81" t="s">
+      <c r="M47" s="80" t="s">
         <v>2063</v>
       </c>
-      <c r="N47" s="81" t="s">
+      <c r="N47" s="80" t="s">
         <v>2385</v>
       </c>
     </row>
@@ -74164,16 +74134,16 @@
       <c r="C48" s="19" t="s">
         <v>1956</v>
       </c>
-      <c r="E48" s="81" t="s">
+      <c r="E48" s="80" t="s">
         <v>2388</v>
       </c>
-      <c r="F48" s="81" t="s">
+      <c r="F48" s="80" t="s">
         <v>2388</v>
       </c>
-      <c r="G48" s="81" t="s">
+      <c r="G48" s="80" t="s">
         <v>2389</v>
       </c>
-      <c r="H48" s="81" t="s">
+      <c r="H48" s="80" t="s">
         <v>2389</v>
       </c>
       <c r="I48" s="19" t="s">
@@ -74182,16 +74152,16 @@
       <c r="J48" s="19" t="s">
         <v>2391</v>
       </c>
-      <c r="K48" s="81" t="s">
+      <c r="K48" s="80" t="s">
         <v>2392</v>
       </c>
-      <c r="L48" s="81" t="s">
+      <c r="L48" s="80" t="s">
         <v>2392</v>
       </c>
-      <c r="M48" s="81" t="s">
+      <c r="M48" s="80" t="s">
         <v>2393</v>
       </c>
-      <c r="N48" s="81" t="s">
+      <c r="N48" s="80" t="s">
         <v>2393</v>
       </c>
     </row>
@@ -74205,16 +74175,16 @@
       <c r="C49" s="19" t="s">
         <v>1956</v>
       </c>
-      <c r="E49" s="81" t="s">
+      <c r="E49" s="80" t="s">
         <v>2396</v>
       </c>
-      <c r="F49" s="81" t="s">
+      <c r="F49" s="80" t="s">
         <v>2396</v>
       </c>
-      <c r="G49" s="81" t="s">
+      <c r="G49" s="80" t="s">
         <v>2322</v>
       </c>
-      <c r="H49" s="81" t="s">
+      <c r="H49" s="80" t="s">
         <v>2323</v>
       </c>
       <c r="I49" s="19" t="s">
@@ -74223,16 +74193,16 @@
       <c r="J49" s="19" t="s">
         <v>2398</v>
       </c>
-      <c r="K49" s="81" t="s">
+      <c r="K49" s="80" t="s">
         <v>2399</v>
       </c>
-      <c r="L49" s="81" t="s">
+      <c r="L49" s="80" t="s">
         <v>2399</v>
       </c>
-      <c r="M49" s="81" t="s">
+      <c r="M49" s="80" t="s">
         <v>2400</v>
       </c>
-      <c r="N49" s="81" t="s">
+      <c r="N49" s="80" t="s">
         <v>2401</v>
       </c>
     </row>
@@ -74246,12 +74216,12 @@
       <c r="C50" s="19" t="s">
         <v>1956</v>
       </c>
-      <c r="E50" s="79"/>
-      <c r="F50" s="79"/>
-      <c r="G50" s="81" t="s">
+      <c r="E50" s="78"/>
+      <c r="F50" s="78"/>
+      <c r="G50" s="80" t="s">
         <v>2403</v>
       </c>
-      <c r="H50" s="81" t="s">
+      <c r="H50" s="80" t="s">
         <v>2403</v>
       </c>
       <c r="I50" s="19" t="s">
@@ -74260,12 +74230,12 @@
       <c r="J50" s="19" t="s">
         <v>2404</v>
       </c>
-      <c r="K50" s="79"/>
-      <c r="L50" s="79"/>
-      <c r="M50" s="81" t="s">
+      <c r="K50" s="78"/>
+      <c r="L50" s="78"/>
+      <c r="M50" s="80" t="s">
         <v>2405</v>
       </c>
-      <c r="N50" s="81" t="s">
+      <c r="N50" s="80" t="s">
         <v>2406</v>
       </c>
     </row>
@@ -74279,16 +74249,16 @@
       <c r="C51" s="19" t="s">
         <v>1956</v>
       </c>
-      <c r="E51" s="81" t="s">
+      <c r="E51" s="80" t="s">
         <v>2409</v>
       </c>
-      <c r="F51" s="81" t="s">
+      <c r="F51" s="80" t="s">
         <v>2409</v>
       </c>
-      <c r="G51" s="81" t="s">
+      <c r="G51" s="80" t="s">
         <v>2410</v>
       </c>
-      <c r="H51" s="81" t="s">
+      <c r="H51" s="80" t="s">
         <v>2410</v>
       </c>
       <c r="I51" s="19" t="s">
@@ -74297,16 +74267,16 @@
       <c r="J51" s="19" t="s">
         <v>2412</v>
       </c>
-      <c r="K51" s="81" t="s">
+      <c r="K51" s="80" t="s">
         <v>2413</v>
       </c>
-      <c r="L51" s="81" t="s">
+      <c r="L51" s="80" t="s">
         <v>2414</v>
       </c>
-      <c r="M51" s="81" t="s">
+      <c r="M51" s="80" t="s">
         <v>2415</v>
       </c>
-      <c r="N51" s="81" t="s">
+      <c r="N51" s="80" t="s">
         <v>2416</v>
       </c>
     </row>
@@ -74320,16 +74290,16 @@
       <c r="C52" s="19" t="s">
         <v>1956</v>
       </c>
-      <c r="E52" s="81" t="s">
+      <c r="E52" s="80" t="s">
         <v>2417</v>
       </c>
-      <c r="F52" s="81" t="s">
+      <c r="F52" s="80" t="s">
         <v>2418</v>
       </c>
-      <c r="G52" s="81" t="s">
+      <c r="G52" s="80" t="s">
         <v>2419</v>
       </c>
-      <c r="H52" s="81" t="s">
+      <c r="H52" s="80" t="s">
         <v>2419</v>
       </c>
       <c r="I52" s="19" t="s">
@@ -74338,16 +74308,16 @@
       <c r="J52" s="19" t="s">
         <v>2420</v>
       </c>
-      <c r="K52" s="81" t="s">
+      <c r="K52" s="80" t="s">
         <v>2421</v>
       </c>
-      <c r="L52" s="81" t="s">
+      <c r="L52" s="80" t="s">
         <v>2421</v>
       </c>
-      <c r="M52" s="81" t="s">
+      <c r="M52" s="80" t="s">
         <v>2422</v>
       </c>
-      <c r="N52" s="81" t="s">
+      <c r="N52" s="80" t="s">
         <v>2423</v>
       </c>
     </row>
@@ -74361,12 +74331,12 @@
       <c r="C53" s="19" t="s">
         <v>1956</v>
       </c>
-      <c r="E53" s="79"/>
-      <c r="F53" s="79"/>
-      <c r="G53" s="81" t="s">
+      <c r="E53" s="78"/>
+      <c r="F53" s="78"/>
+      <c r="G53" s="80" t="s">
         <v>2426</v>
       </c>
-      <c r="H53" s="81" t="s">
+      <c r="H53" s="80" t="s">
         <v>2427</v>
       </c>
       <c r="I53" s="19" t="s">
@@ -74375,16 +74345,16 @@
       <c r="J53" s="19" t="s">
         <v>2429</v>
       </c>
-      <c r="K53" s="81" t="s">
+      <c r="K53" s="80" t="s">
         <v>2430</v>
       </c>
-      <c r="L53" s="81" t="s">
+      <c r="L53" s="80" t="s">
         <v>2430</v>
       </c>
-      <c r="M53" s="81" t="s">
+      <c r="M53" s="80" t="s">
         <v>2431</v>
       </c>
-      <c r="N53" s="81" t="s">
+      <c r="N53" s="80" t="s">
         <v>2432</v>
       </c>
     </row>
@@ -74398,16 +74368,16 @@
       <c r="C54" s="19" t="s">
         <v>1956</v>
       </c>
-      <c r="E54" s="81" t="s">
+      <c r="E54" s="80" t="s">
         <v>2067</v>
       </c>
-      <c r="F54" s="81" t="s">
+      <c r="F54" s="80" t="s">
         <v>2067</v>
       </c>
-      <c r="G54" s="81" t="s">
+      <c r="G54" s="80" t="s">
         <v>2434</v>
       </c>
-      <c r="H54" s="81" t="s">
+      <c r="H54" s="80" t="s">
         <v>2434</v>
       </c>
       <c r="I54" s="19" t="s">
@@ -74416,16 +74386,16 @@
       <c r="J54" s="19" t="s">
         <v>2435</v>
       </c>
-      <c r="K54" s="81" t="s">
+      <c r="K54" s="80" t="s">
         <v>2436</v>
       </c>
-      <c r="L54" s="81" t="s">
+      <c r="L54" s="80" t="s">
         <v>2436</v>
       </c>
-      <c r="M54" s="81" t="s">
+      <c r="M54" s="80" t="s">
         <v>2437</v>
       </c>
-      <c r="N54" s="81" t="s">
+      <c r="N54" s="80" t="s">
         <v>2438</v>
       </c>
     </row>
@@ -74439,16 +74409,16 @@
       <c r="C55" s="19" t="s">
         <v>1956</v>
       </c>
-      <c r="E55" s="81" t="s">
+      <c r="E55" s="80" t="s">
         <v>2441</v>
       </c>
-      <c r="F55" s="81" t="s">
+      <c r="F55" s="80" t="s">
         <v>2441</v>
       </c>
-      <c r="G55" s="81" t="s">
+      <c r="G55" s="80" t="s">
         <v>2442</v>
       </c>
-      <c r="H55" s="81" t="s">
+      <c r="H55" s="80" t="s">
         <v>2443</v>
       </c>
       <c r="I55" s="19" t="s">
@@ -74457,16 +74427,16 @@
       <c r="J55" s="19" t="s">
         <v>2445</v>
       </c>
-      <c r="K55" s="81" t="s">
+      <c r="K55" s="80" t="s">
         <v>2446</v>
       </c>
-      <c r="L55" s="81" t="s">
+      <c r="L55" s="80" t="s">
         <v>2446</v>
       </c>
-      <c r="M55" s="81" t="s">
+      <c r="M55" s="80" t="s">
         <v>2447</v>
       </c>
-      <c r="N55" s="81" t="s">
+      <c r="N55" s="80" t="s">
         <v>2447</v>
       </c>
     </row>
@@ -74480,16 +74450,16 @@
       <c r="C56" s="19" t="s">
         <v>1956</v>
       </c>
-      <c r="E56" s="81" t="s">
+      <c r="E56" s="80" t="s">
         <v>2449</v>
       </c>
-      <c r="F56" s="81" t="s">
+      <c r="F56" s="80" t="s">
         <v>2449</v>
       </c>
-      <c r="G56" s="81" t="s">
+      <c r="G56" s="80" t="s">
         <v>2450</v>
       </c>
-      <c r="H56" s="81" t="s">
+      <c r="H56" s="80" t="s">
         <v>2451</v>
       </c>
       <c r="I56" s="19" t="s">
@@ -74498,16 +74468,16 @@
       <c r="J56" s="19" t="s">
         <v>2453</v>
       </c>
-      <c r="K56" s="81" t="s">
+      <c r="K56" s="80" t="s">
         <v>2454</v>
       </c>
-      <c r="L56" s="81" t="s">
+      <c r="L56" s="80" t="s">
         <v>2454</v>
       </c>
-      <c r="M56" s="81" t="s">
+      <c r="M56" s="80" t="s">
         <v>2455</v>
       </c>
-      <c r="N56" s="81" t="s">
+      <c r="N56" s="80" t="s">
         <v>2456</v>
       </c>
     </row>
@@ -74521,16 +74491,16 @@
       <c r="C57" s="19" t="s">
         <v>1956</v>
       </c>
-      <c r="E57" s="81" t="s">
+      <c r="E57" s="80" t="s">
         <v>2459</v>
       </c>
-      <c r="F57" s="81" t="s">
+      <c r="F57" s="80" t="s">
         <v>2459</v>
       </c>
-      <c r="G57" s="81" t="s">
+      <c r="G57" s="80" t="s">
         <v>2460</v>
       </c>
-      <c r="H57" s="81" t="s">
+      <c r="H57" s="80" t="s">
         <v>2461</v>
       </c>
       <c r="I57" s="19" t="s">
@@ -74539,16 +74509,16 @@
       <c r="J57" s="19" t="s">
         <v>2463</v>
       </c>
-      <c r="K57" s="81" t="s">
+      <c r="K57" s="80" t="s">
         <v>2464</v>
       </c>
-      <c r="L57" s="81" t="s">
+      <c r="L57" s="80" t="s">
         <v>2464</v>
       </c>
-      <c r="M57" s="81" t="s">
+      <c r="M57" s="80" t="s">
         <v>2465</v>
       </c>
-      <c r="N57" s="81" t="s">
+      <c r="N57" s="80" t="s">
         <v>2466</v>
       </c>
     </row>
@@ -74562,16 +74532,16 @@
       <c r="C58" s="19" t="s">
         <v>1956</v>
       </c>
-      <c r="E58" s="81" t="s">
+      <c r="E58" s="80" t="s">
         <v>2469</v>
       </c>
-      <c r="F58" s="81" t="s">
+      <c r="F58" s="80" t="s">
         <v>2470</v>
       </c>
-      <c r="G58" s="81" t="s">
+      <c r="G58" s="80" t="s">
         <v>2471</v>
       </c>
-      <c r="H58" s="81" t="s">
+      <c r="H58" s="80" t="s">
         <v>2472</v>
       </c>
       <c r="I58" s="19" t="s">
@@ -74580,16 +74550,16 @@
       <c r="J58" s="19" t="s">
         <v>2474</v>
       </c>
-      <c r="K58" s="81" t="s">
+      <c r="K58" s="80" t="s">
         <v>2475</v>
       </c>
-      <c r="L58" s="81" t="s">
+      <c r="L58" s="80" t="s">
         <v>2475</v>
       </c>
-      <c r="M58" s="81" t="s">
+      <c r="M58" s="80" t="s">
         <v>2476</v>
       </c>
-      <c r="N58" s="81" t="s">
+      <c r="N58" s="80" t="s">
         <v>2476</v>
       </c>
     </row>
@@ -74603,12 +74573,12 @@
       <c r="C59" s="19" t="s">
         <v>1956</v>
       </c>
-      <c r="E59" s="79"/>
-      <c r="F59" s="79"/>
-      <c r="G59" s="81" t="s">
+      <c r="E59" s="78"/>
+      <c r="F59" s="78"/>
+      <c r="G59" s="80" t="s">
         <v>2479</v>
       </c>
-      <c r="H59" s="81" t="s">
+      <c r="H59" s="80" t="s">
         <v>2480</v>
       </c>
       <c r="I59" s="19" t="s">
@@ -74617,16 +74587,16 @@
       <c r="J59" s="19" t="s">
         <v>2482</v>
       </c>
-      <c r="K59" s="81" t="s">
+      <c r="K59" s="80" t="s">
         <v>2483</v>
       </c>
-      <c r="L59" s="81" t="s">
+      <c r="L59" s="80" t="s">
         <v>2483</v>
       </c>
-      <c r="M59" s="81" t="s">
+      <c r="M59" s="80" t="s">
         <v>2484</v>
       </c>
-      <c r="N59" s="81" t="s">
+      <c r="N59" s="80" t="s">
         <v>2484</v>
       </c>
     </row>
@@ -74640,16 +74610,16 @@
       <c r="C60" s="19" t="s">
         <v>1956</v>
       </c>
-      <c r="E60" s="81" t="s">
+      <c r="E60" s="80" t="s">
         <v>2486</v>
       </c>
-      <c r="F60" s="81" t="s">
+      <c r="F60" s="80" t="s">
         <v>2486</v>
       </c>
-      <c r="G60" s="81" t="s">
+      <c r="G60" s="80" t="s">
         <v>2487</v>
       </c>
-      <c r="H60" s="81" t="s">
+      <c r="H60" s="80" t="s">
         <v>2488</v>
       </c>
       <c r="I60" s="19" t="s">
@@ -74658,16 +74628,16 @@
       <c r="J60" s="19" t="s">
         <v>2489</v>
       </c>
-      <c r="K60" s="81" t="s">
+      <c r="K60" s="80" t="s">
         <v>2490</v>
       </c>
-      <c r="L60" s="81" t="s">
+      <c r="L60" s="80" t="s">
         <v>2490</v>
       </c>
-      <c r="M60" s="81" t="s">
+      <c r="M60" s="80" t="s">
         <v>2491</v>
       </c>
-      <c r="N60" s="81" t="s">
+      <c r="N60" s="80" t="s">
         <v>2492</v>
       </c>
     </row>
@@ -74681,16 +74651,16 @@
       <c r="C61" s="19" t="s">
         <v>1956</v>
       </c>
-      <c r="E61" s="81" t="s">
+      <c r="E61" s="80" t="s">
         <v>2494</v>
       </c>
-      <c r="F61" s="81" t="s">
+      <c r="F61" s="80" t="s">
         <v>2494</v>
       </c>
-      <c r="G61" s="81" t="s">
+      <c r="G61" s="80" t="s">
         <v>2495</v>
       </c>
-      <c r="H61" s="81" t="s">
+      <c r="H61" s="80" t="s">
         <v>2495</v>
       </c>
       <c r="I61" s="19" t="s">
@@ -74699,16 +74669,16 @@
       <c r="J61" s="19" t="s">
         <v>2496</v>
       </c>
-      <c r="K61" s="81" t="s">
+      <c r="K61" s="80" t="s">
         <v>2497</v>
       </c>
-      <c r="L61" s="81" t="s">
+      <c r="L61" s="80" t="s">
         <v>2497</v>
       </c>
-      <c r="M61" s="81" t="s">
+      <c r="M61" s="80" t="s">
         <v>2498</v>
       </c>
-      <c r="N61" s="81" t="s">
+      <c r="N61" s="80" t="s">
         <v>2498</v>
       </c>
     </row>
@@ -74722,16 +74692,16 @@
       <c r="C62" s="19" t="s">
         <v>1956</v>
       </c>
-      <c r="E62" s="81" t="s">
+      <c r="E62" s="80" t="s">
         <v>2500</v>
       </c>
-      <c r="F62" s="81" t="s">
+      <c r="F62" s="80" t="s">
         <v>2500</v>
       </c>
-      <c r="G62" s="81" t="s">
+      <c r="G62" s="80" t="s">
         <v>2501</v>
       </c>
-      <c r="H62" s="81" t="s">
+      <c r="H62" s="80" t="s">
         <v>2501</v>
       </c>
       <c r="I62" s="19" t="s">
@@ -74740,16 +74710,16 @@
       <c r="J62" s="19" t="s">
         <v>2503</v>
       </c>
-      <c r="K62" s="81" t="s">
+      <c r="K62" s="80" t="s">
         <v>2504</v>
       </c>
-      <c r="L62" s="81" t="s">
+      <c r="L62" s="80" t="s">
         <v>2504</v>
       </c>
-      <c r="M62" s="81" t="s">
+      <c r="M62" s="80" t="s">
         <v>2505</v>
       </c>
-      <c r="N62" s="81" t="s">
+      <c r="N62" s="80" t="s">
         <v>2506</v>
       </c>
     </row>
@@ -74763,16 +74733,16 @@
       <c r="C63" s="19" t="s">
         <v>1956</v>
       </c>
-      <c r="E63" s="81" t="s">
+      <c r="E63" s="80" t="s">
         <v>2370</v>
       </c>
-      <c r="F63" s="81" t="s">
+      <c r="F63" s="80" t="s">
         <v>2370</v>
       </c>
-      <c r="G63" s="81" t="s">
+      <c r="G63" s="80" t="s">
         <v>2371</v>
       </c>
-      <c r="H63" s="81" t="s">
+      <c r="H63" s="80" t="s">
         <v>2372</v>
       </c>
       <c r="I63" s="19" t="s">
@@ -74781,16 +74751,16 @@
       <c r="J63" s="19" t="s">
         <v>2510</v>
       </c>
-      <c r="K63" s="81" t="s">
+      <c r="K63" s="80" t="s">
         <v>2375</v>
       </c>
-      <c r="L63" s="81" t="s">
+      <c r="L63" s="80" t="s">
         <v>2375</v>
       </c>
-      <c r="M63" s="81" t="s">
+      <c r="M63" s="80" t="s">
         <v>2376</v>
       </c>
-      <c r="N63" s="81" t="s">
+      <c r="N63" s="80" t="s">
         <v>2377</v>
       </c>
     </row>
@@ -74828,13 +74798,13 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="B201" activeCellId="0" sqref="B201"/>
@@ -74847,154 +74817,154 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="63"/>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="81" t="s">
         <v>2514</v>
       </c>
-      <c r="C1" s="82" t="s">
+      <c r="C1" s="81" t="s">
         <v>2515</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="81" t="s">
         <v>1964</v>
       </c>
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="81" t="s">
         <v>2516</v>
       </c>
-      <c r="C2" s="82" t="s">
+      <c r="C2" s="81" t="s">
         <v>2515</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="81" t="s">
         <v>2517</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="81" t="s">
         <v>2518</v>
       </c>
       <c r="C3" s="63"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="81" t="s">
         <v>1962</v>
       </c>
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="81" t="s">
         <v>2519</v>
       </c>
-      <c r="C4" s="82" t="s">
+      <c r="C4" s="81" t="s">
         <v>2515</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="81" t="s">
         <v>1960</v>
       </c>
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="81" t="s">
         <v>2520</v>
       </c>
-      <c r="C5" s="82" t="s">
+      <c r="C5" s="81" t="s">
         <v>2515</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="81" t="s">
         <v>2521</v>
       </c>
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="81" t="s">
         <v>2522</v>
       </c>
       <c r="C6" s="63"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="82" t="s">
+      <c r="A7" s="81" t="s">
         <v>2523</v>
       </c>
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="81" t="s">
         <v>2524</v>
       </c>
       <c r="C7" s="63"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="82" t="s">
+      <c r="A8" s="81" t="s">
         <v>2525</v>
       </c>
-      <c r="B8" s="82" t="s">
+      <c r="B8" s="81" t="s">
         <v>2526</v>
       </c>
       <c r="C8" s="63"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="82" t="s">
+      <c r="A9" s="81" t="s">
         <v>2527</v>
       </c>
-      <c r="B9" s="82" t="s">
+      <c r="B9" s="81" t="s">
         <v>2528</v>
       </c>
       <c r="C9" s="63"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="82" t="s">
+      <c r="A10" s="81" t="s">
         <v>2529</v>
       </c>
-      <c r="B10" s="82" t="s">
+      <c r="B10" s="81" t="s">
         <v>2530</v>
       </c>
       <c r="C10" s="63"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="82" t="s">
+      <c r="A11" s="81" t="s">
         <v>2531</v>
       </c>
-      <c r="B11" s="82" t="s">
+      <c r="B11" s="81" t="s">
         <v>2532</v>
       </c>
       <c r="C11" s="63"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="82" t="s">
+      <c r="A12" s="81" t="s">
         <v>2533</v>
       </c>
-      <c r="B12" s="82" t="s">
+      <c r="B12" s="81" t="s">
         <v>2514</v>
       </c>
-      <c r="C12" s="82" t="s">
+      <c r="C12" s="81" t="s">
         <v>2515</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="82" t="s">
+      <c r="A13" s="81" t="s">
         <v>2534</v>
       </c>
-      <c r="B13" s="82" t="s">
+      <c r="B13" s="81" t="s">
         <v>2535</v>
       </c>
       <c r="C13" s="63"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="82" t="s">
+      <c r="A14" s="81" t="s">
         <v>2536</v>
       </c>
-      <c r="B14" s="82" t="s">
+      <c r="B14" s="81" t="s">
         <v>2537</v>
       </c>
       <c r="C14" s="63"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="82" t="s">
+      <c r="A15" s="81" t="s">
         <v>1958</v>
       </c>
-      <c r="B15" s="82" t="s">
+      <c r="B15" s="81" t="s">
         <v>2538</v>
       </c>
-      <c r="C15" s="82" t="s">
+      <c r="C15" s="81" t="s">
         <v>2515</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="82" t="s">
+      <c r="A16" s="81" t="s">
         <v>1966</v>
       </c>
-      <c r="B16" s="82" t="s">
+      <c r="B16" s="81" t="s">
         <v>2539</v>
       </c>
       <c r="C16" s="63" t="s">
@@ -75002,19 +74972,19 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="82" t="s">
+      <c r="A17" s="81" t="s">
         <v>2540</v>
       </c>
-      <c r="B17" s="82" t="s">
+      <c r="B17" s="81" t="s">
         <v>2541</v>
       </c>
       <c r="C17" s="63"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="82" t="s">
+      <c r="A18" s="81" t="s">
         <v>2542</v>
       </c>
-      <c r="B18" s="82" t="s">
+      <c r="B18" s="81" t="s">
         <v>2543</v>
       </c>
       <c r="C18" s="63"/>
